--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$90</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="588">
   <si>
     <t>Path</t>
   </si>
@@ -401,6 +401,13 @@
 </t>
   </si>
   <si>
+    <t>preferred-contact-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/preferred-contact-time}
+</t>
+  </si>
+  <si>
     <t>symptom-onset-date</t>
   </si>
   <si>
@@ -1396,8 +1403,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T09:00:00-04:00"/&gt;
-  &lt;end value="2010-06-30T10:00:00-04:00"/&gt;
+  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -1993,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2002,47 +2009,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.37109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="101.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.09375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="31.63671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="160.9140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="41.5625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="109.2890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.43359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="153.55078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="35.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3919,45 +3926,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -4023,7 +4028,7 @@
         <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>45</v>
@@ -4038,42 +4043,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -4122,7 +4129,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -4134,30 +4141,30 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4165,31 +4172,33 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -4237,34 +4246,34 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -4272,18 +4281,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -4295,17 +4304,15 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4342,37 +4349,37 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>45</v>
@@ -4389,43 +4396,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4449,49 +4454,49 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>45</v>
@@ -4500,7 +4505,7 @@
         <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4508,7 +4513,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4525,25 +4530,25 @@
         <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4568,13 +4573,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4592,7 +4597,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4610,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>45</v>
@@ -4619,15 +4624,15 @@
         <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4635,13 +4640,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4650,19 +4655,19 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4675,7 +4680,7 @@
         <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>45</v>
@@ -4687,13 +4692,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4711,7 +4716,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4726,10 +4731,10 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>45</v>
@@ -4738,7 +4743,7 @@
         <v>45</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4746,7 +4751,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4769,18 +4774,20 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4792,7 +4799,7 @@
         <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>45</v>
@@ -4828,7 +4835,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4843,11 +4850,11 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AL24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4855,15 +4862,15 @@
         <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4871,13 +4878,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4886,15 +4893,17 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4907,7 +4916,7 @@
         <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>45</v>
@@ -4943,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4958,10 +4967,10 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
@@ -4970,7 +4979,7 @@
         <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4978,7 +4987,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5001,17 +5010,15 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -5060,7 +5067,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -5078,7 +5085,7 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>45</v>
@@ -5087,15 +5094,15 @@
         <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5109,35 +5116,31 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>45</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5199,16 +5202,16 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5224,118 +5227,120 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5343,31 +5348,35 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5415,34 +5424,34 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5450,18 +5459,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5473,17 +5482,15 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5520,37 +5527,37 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>45</v>
@@ -5567,43 +5574,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5627,49 +5632,49 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>45</v>
@@ -5678,7 +5683,7 @@
         <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5686,7 +5691,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5703,25 +5708,25 @@
         <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5746,13 +5751,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5770,7 +5775,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5788,7 +5793,7 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>45</v>
@@ -5797,19 +5802,19 @@
         <v>45</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5819,7 +5824,7 @@
         <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>45</v>
@@ -5831,15 +5836,17 @@
         <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5896,17 +5903,17 @@
         <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AL33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5914,7 +5921,7 @@
         <v>45</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5922,18 +5929,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>53</v>
@@ -5948,13 +5955,13 @@
         <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6004,26 +6011,26 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>45</v>
       </c>
@@ -6031,19 +6038,19 @@
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6053,7 +6060,7 @@
         <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
@@ -6065,12 +6072,14 @@
         <v>54</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6119,7 +6128,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6128,16 +6137,16 @@
         <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>45</v>
@@ -6146,7 +6155,7 @@
         <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -6154,7 +6163,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6180,10 +6189,10 @@
         <v>54</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6234,7 +6243,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6252,7 +6261,7 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>45</v>
@@ -6261,7 +6270,7 @@
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6269,7 +6278,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6280,7 +6289,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -6292,18 +6301,16 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6351,13 +6358,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6369,7 +6376,7 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>45</v>
@@ -6378,15 +6385,15 @@
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6397,10 +6404,10 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
@@ -6409,19 +6416,17 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6470,13 +6475,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6485,27 +6490,27 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6516,28 +6521,32 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>54</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6585,34 +6594,34 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6620,18 +6629,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6643,17 +6652,15 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6690,37 +6697,37 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>45</v>
@@ -6735,40 +6742,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6793,49 +6802,49 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>45</v>
@@ -6844,7 +6853,7 @@
         <v>45</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6852,7 +6861,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6875,20 +6884,16 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6912,13 +6917,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6936,7 +6941,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6945,16 +6950,16 @@
         <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>45</v>
@@ -6963,7 +6968,7 @@
         <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6971,7 +6976,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6979,7 +6984,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
@@ -6988,25 +6993,25 @@
         <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7031,11 +7036,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -7053,7 +7060,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7068,10 +7075,10 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>45</v>
@@ -7080,15 +7087,15 @@
         <v>45</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7102,27 +7109,29 @@
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -7146,13 +7155,11 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7170,7 +7177,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7185,10 +7192,10 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>45</v>
@@ -7197,7 +7204,7 @@
         <v>45</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -7205,7 +7212,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7228,15 +7235,17 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7285,7 +7294,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7303,7 +7312,7 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>45</v>
@@ -7312,15 +7321,15 @@
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7328,13 +7337,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7343,20 +7352,16 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7380,11 +7385,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7402,7 +7409,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7417,19 +7424,19 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -7437,7 +7444,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7445,7 +7452,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
@@ -7460,19 +7467,19 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7497,13 +7504,11 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7521,7 +7526,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7536,27 +7541,27 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AM47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7570,28 +7575,28 @@
         <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7640,7 +7645,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7655,27 +7660,27 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7686,31 +7691,31 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7759,13 +7764,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7774,27 +7779,27 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7805,28 +7810,32 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>143</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7874,34 +7883,34 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7909,18 +7918,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7932,17 +7941,15 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7979,37 +7986,37 @@
         <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>45</v>
@@ -8026,43 +8033,41 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>151</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>45</v>
@@ -8086,49 +8091,49 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>372</v>
+        <v>153</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
@@ -8137,7 +8142,7 @@
         <v>45</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>45</v>
@@ -8145,7 +8150,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8162,7 +8167,7 @@
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>53</v>
@@ -8171,15 +8176,17 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8191,7 +8198,7 @@
         <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>45</v>
@@ -8203,13 +8210,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8227,7 +8234,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8245,7 +8252,7 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
@@ -8254,7 +8261,7 @@
         <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8262,7 +8269,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8285,20 +8292,18 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8310,7 +8315,7 @@
         <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>45</v>
@@ -8322,13 +8327,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8346,7 +8351,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8364,7 +8369,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>45</v>
@@ -8373,15 +8378,15 @@
         <v>45</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8392,10 +8397,10 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8407,13 +8412,17 @@
         <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8425,7 +8434,7 @@
         <v>45</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>45</v>
@@ -8461,13 +8470,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -8476,10 +8485,10 @@
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>395</v>
+        <v>244</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>45</v>
@@ -8488,7 +8497,7 @@
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8496,18 +8505,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>53</v>
@@ -8522,10 +8531,10 @@
         <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8540,7 +8549,7 @@
         <v>45</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>45</v>
@@ -8576,13 +8585,13 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8591,10 +8600,10 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>45</v>
@@ -8603,19 +8612,19 @@
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8625,7 +8634,7 @@
         <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>45</v>
@@ -8637,14 +8646,12 @@
         <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8657,7 +8664,7 @@
         <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>45</v>
@@ -8693,7 +8700,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8708,10 +8715,10 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
@@ -8720,19 +8727,19 @@
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8742,7 +8749,7 @@
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
@@ -8754,12 +8761,14 @@
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8772,7 +8781,7 @@
         <v>45</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>45</v>
@@ -8784,13 +8793,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8808,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8823,10 +8832,10 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -8835,7 +8844,7 @@
         <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -8843,11 +8852,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8869,10 +8878,10 @@
         <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8887,7 +8896,7 @@
         <v>45</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>45</v>
@@ -8899,13 +8908,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8923,7 +8932,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8938,10 +8947,10 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>45</v>
@@ -8950,19 +8959,19 @@
         <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8972,7 +8981,7 @@
         <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
@@ -8984,14 +8993,12 @@
         <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9004,7 +9011,7 @@
         <v>45</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>45</v>
@@ -9040,7 +9047,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9055,10 +9062,10 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>45</v>
@@ -9067,15 +9074,15 @@
         <v>45</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9089,7 +9096,7 @@
         <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
@@ -9098,18 +9105,18 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9121,7 +9128,7 @@
         <v>45</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>45</v>
@@ -9157,7 +9164,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9172,10 +9179,10 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>45</v>
@@ -9184,15 +9191,15 @@
         <v>45</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9206,26 +9213,26 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9238,7 +9245,7 @@
         <v>45</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>45</v>
@@ -9250,13 +9257,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9289,19 +9296,19 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>451</v>
+        <v>280</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9309,7 +9316,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9332,19 +9339,17 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>165</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9369,13 +9374,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9393,7 +9398,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9411,16 +9416,16 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>146</v>
+        <v>454</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -9428,7 +9433,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9439,7 +9444,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9451,19 +9456,19 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9512,13 +9517,13 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
@@ -9530,16 +9535,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9547,7 +9552,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9570,19 +9575,19 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9631,7 +9636,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9643,22 +9648,22 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>476</v>
+        <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9666,7 +9671,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9677,7 +9682,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9689,16 +9694,20 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>143</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9746,28 +9755,28 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>145</v>
+        <v>472</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>146</v>
+        <v>479</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>45</v>
@@ -9781,18 +9790,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9804,17 +9813,15 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9863,25 +9870,25 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
@@ -9898,11 +9905,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>481</v>
+        <v>129</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9915,26 +9922,24 @@
         <v>45</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>482</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>151</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9982,7 +9987,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>484</v>
+        <v>153</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10000,7 +10005,7 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>45</v>
@@ -10017,11 +10022,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10034,23 +10039,25 @@
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10075,13 +10082,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10099,7 +10106,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10111,22 +10118,22 @@
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>491</v>
+        <v>95</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
@@ -10134,7 +10141,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10145,7 +10152,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -10157,17 +10164,17 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10192,13 +10199,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10216,13 +10223,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -10234,16 +10241,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>221</v>
+        <v>493</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -10251,7 +10258,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10262,7 +10269,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10274,19 +10281,17 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>285</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10335,13 +10340,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10353,16 +10358,16 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
@@ -10370,7 +10375,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10381,7 +10386,7 @@
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -10393,17 +10398,19 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>506</v>
+        <v>287</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10452,13 +10459,13 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -10470,16 +10477,16 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10487,7 +10494,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10510,17 +10517,17 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>328</v>
+        <v>506</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10545,13 +10552,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>512</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10569,7 +10576,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10587,16 +10594,16 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>117</v>
+        <v>361</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -10604,7 +10611,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10627,17 +10634,17 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>515</v>
+        <v>330</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10662,13 +10669,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10686,7 +10693,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10695,7 +10702,7 @@
         <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>64</v>
@@ -10704,16 +10711,16 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>519</v>
+        <v>117</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>45</v>
@@ -10721,7 +10728,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10744,16 +10751,18 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10801,7 +10810,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10810,7 +10819,7 @@
         <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>520</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>64</v>
@@ -10819,24 +10828,24 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10847,10 +10856,10 @@
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>45</v>
@@ -10859,20 +10868,16 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>471</v>
+        <v>193</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10920,13 +10925,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -10935,13 +10940,13 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>531</v>
+        <v>148</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>45</v>
@@ -10953,9 +10958,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10966,10 +10971,10 @@
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>45</v>
@@ -10978,16 +10983,20 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>143</v>
+        <v>528</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11035,28 +11044,28 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>45</v>
+        <v>527</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>146</v>
+        <v>532</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>45</v>
+        <v>533</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>45</v>
@@ -11070,18 +11079,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>45</v>
@@ -11093,17 +11102,15 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -11152,25 +11159,25 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>45</v>
@@ -11187,11 +11194,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>481</v>
+        <v>129</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11204,26 +11211,24 @@
         <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>482</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>483</v>
+        <v>151</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>484</v>
+        <v>153</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11289,7 +11294,7 @@
         <v>45</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>45</v>
@@ -11304,44 +11309,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>539</v>
+        <v>133</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11366,11 +11371,13 @@
         <v>45</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X80" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y80" t="s" s="2">
-        <v>540</v>
+        <v>45</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
@@ -11388,42 +11395,42 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>541</v>
+        <v>95</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>543</v>
+        <v>45</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11431,13 +11438,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>45</v>
@@ -11446,19 +11453,19 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11483,13 +11490,11 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11507,10 +11512,10 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>52</v>
@@ -11522,19 +11527,19 @@
         <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
@@ -11542,18 +11547,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>553</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11565,18 +11570,20 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>554</v>
+        <v>208</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
       </c>
@@ -11624,13 +11631,13 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>45</v>
@@ -11642,16 +11649,16 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>146</v>
+        <v>552</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
@@ -11659,18 +11666,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>45</v>
+        <v>555</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>45</v>
@@ -11679,23 +11686,21 @@
         <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>198</v>
+        <v>556</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11743,13 +11748,13 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
@@ -11761,16 +11766,16 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>565</v>
+        <v>148</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>45</v>
+        <v>561</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>45</v>
@@ -11778,7 +11783,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11789,31 +11794,31 @@
         <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11862,13 +11867,13 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>45</v>
@@ -11880,10 +11885,10 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>146</v>
+        <v>567</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>45</v>
@@ -11897,7 +11902,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11908,28 +11913,32 @@
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>143</v>
+        <v>569</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
       </c>
@@ -11977,28 +11986,28 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>145</v>
+        <v>568</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>146</v>
+        <v>573</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>45</v>
@@ -12012,18 +12021,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
@@ -12035,17 +12044,15 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12094,25 +12101,25 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>45</v>
@@ -12129,11 +12136,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>481</v>
+        <v>129</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12146,26 +12153,24 @@
         <v>45</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>482</v>
+        <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>483</v>
+        <v>151</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12213,7 +12218,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>153</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12231,7 +12236,7 @@
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>45</v>
@@ -12248,41 +12253,43 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>576</v>
+        <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>577</v>
+        <v>484</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>578</v>
+        <v>485</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12330,34 +12337,34 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>575</v>
+        <v>486</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>45</v>
@@ -12365,7 +12372,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12388,15 +12395,17 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>72</v>
+        <v>578</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
@@ -12421,13 +12430,13 @@
         <v>45</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>583</v>
+        <v>45</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>584</v>
+        <v>45</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>45</v>
@@ -12445,7 +12454,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>52</v>
@@ -12463,23 +12472,138 @@
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AL89" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO89" t="s" s="2">
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO89">
+  <autoFilter ref="A1:AO90">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12489,7 +12613,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="590">
   <si>
     <t>Path</t>
   </si>
@@ -426,6 +426,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/isolation}
+</t>
+  </si>
+  <si>
+    <t>full-assigned-jurisdiction-path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/full-assigned-jurisdiction-path}
 </t>
   </si>
   <si>
@@ -2000,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO90"/>
+  <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2009,47 +2016,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="101.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.09375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="30.62109375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="153.55078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.59765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="31.63671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="160.9140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="41.5625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="109.2890625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4043,45 +4050,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -4129,7 +4134,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -4147,7 +4152,7 @@
         <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>45</v>
@@ -4162,42 +4167,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -4246,7 +4253,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -4258,30 +4265,30 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4289,31 +4296,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4361,34 +4370,34 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -4396,18 +4405,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -4419,17 +4428,15 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4466,37 +4473,37 @@
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>45</v>
@@ -4513,43 +4520,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4573,49 +4578,49 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>45</v>
@@ -4624,7 +4629,7 @@
         <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4632,7 +4637,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4649,25 +4654,25 @@
         <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4692,13 +4697,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4716,7 +4721,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4734,7 +4739,7 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>45</v>
@@ -4743,15 +4748,15 @@
         <v>45</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4759,13 +4764,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
@@ -4774,19 +4779,19 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4799,7 +4804,7 @@
         <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>45</v>
@@ -4811,13 +4816,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4835,7 +4840,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4850,10 +4855,10 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>45</v>
@@ -4862,7 +4867,7 @@
         <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4870,7 +4875,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4893,18 +4898,20 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4916,7 +4923,7 @@
         <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>45</v>
@@ -4952,7 +4959,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4967,11 +4974,11 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4979,15 +4986,15 @@
         <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4995,13 +5002,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -5010,15 +5017,17 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -5031,7 +5040,7 @@
         <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>45</v>
@@ -5067,7 +5076,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -5082,10 +5091,10 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>45</v>
@@ -5094,7 +5103,7 @@
         <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -5102,7 +5111,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5125,17 +5134,15 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -5184,7 +5191,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5202,7 +5209,7 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>45</v>
@@ -5211,15 +5218,15 @@
         <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5233,35 +5240,31 @@
         <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5323,16 +5326,16 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5340,7 +5343,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5348,118 +5351,120 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5467,31 +5472,35 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5539,34 +5548,34 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5574,18 +5583,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5597,17 +5606,15 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5644,37 +5651,37 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>45</v>
@@ -5691,43 +5698,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5751,49 +5756,49 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>45</v>
@@ -5802,7 +5807,7 @@
         <v>45</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5810,7 +5815,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5827,25 +5832,25 @@
         <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5870,13 +5875,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5894,7 +5899,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5912,7 +5917,7 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>45</v>
@@ -5921,19 +5926,19 @@
         <v>45</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5943,7 +5948,7 @@
         <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
@@ -5955,15 +5960,17 @@
         <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -6020,17 +6027,17 @@
         <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>45</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -6046,18 +6053,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>53</v>
@@ -6072,13 +6079,13 @@
         <v>54</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6128,26 +6135,26 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AL35" t="s" s="2">
         <v>45</v>
       </c>
@@ -6155,19 +6162,19 @@
         <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6177,7 +6184,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -6189,12 +6196,14 @@
         <v>54</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6243,7 +6252,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6252,16 +6261,16 @@
         <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>45</v>
@@ -6270,7 +6279,7 @@
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6278,7 +6287,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6304,10 +6313,10 @@
         <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6358,7 +6367,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6376,7 +6385,7 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>45</v>
@@ -6385,7 +6394,7 @@
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6393,7 +6402,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6404,7 +6413,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6416,18 +6425,16 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6475,13 +6482,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6493,7 +6500,7 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>45</v>
@@ -6502,15 +6509,15 @@
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6521,10 +6528,10 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
@@ -6533,19 +6540,17 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6594,13 +6599,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6609,27 +6614,27 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6640,28 +6645,32 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6709,34 +6718,34 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6744,18 +6753,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6767,17 +6776,15 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6814,37 +6821,37 @@
         <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>45</v>
@@ -6859,40 +6866,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6917,49 +6926,49 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>45</v>
@@ -6968,7 +6977,7 @@
         <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6976,7 +6985,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6999,20 +7008,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -7036,13 +7041,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -7060,7 +7065,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7069,16 +7074,16 @@
         <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>45</v>
@@ -7087,7 +7092,7 @@
         <v>45</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7095,7 +7100,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7103,7 +7108,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
@@ -7112,25 +7117,25 @@
         <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7155,11 +7160,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7177,7 +7184,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7192,10 +7199,10 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>45</v>
@@ -7204,15 +7211,15 @@
         <v>45</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7226,27 +7233,29 @@
         <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -7270,13 +7279,11 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7294,7 +7301,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7309,10 +7316,10 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>45</v>
@@ -7321,7 +7328,7 @@
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7329,7 +7336,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7352,15 +7359,17 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7409,7 +7418,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7427,7 +7436,7 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>45</v>
@@ -7436,15 +7445,15 @@
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7452,13 +7461,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7467,20 +7476,16 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7504,11 +7509,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7526,7 +7533,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7541,19 +7548,19 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>336</v>
+        <v>95</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7561,7 +7568,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7569,7 +7576,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>52</v>
@@ -7584,19 +7591,19 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7621,13 +7628,11 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7645,7 +7650,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7660,27 +7665,27 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AM48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7694,28 +7699,28 @@
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7764,7 +7769,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7779,27 +7784,27 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7810,31 +7815,31 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7883,13 +7888,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -7898,27 +7903,27 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7929,28 +7934,32 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>145</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7998,34 +8007,34 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -8033,18 +8042,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -8056,17 +8065,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8103,37 +8110,37 @@
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
@@ -8150,43 +8157,41 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>153</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>45</v>
@@ -8210,49 +8215,49 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>374</v>
+        <v>155</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
@@ -8261,7 +8266,7 @@
         <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8269,7 +8274,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8286,7 +8291,7 @@
         <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>53</v>
@@ -8295,15 +8300,17 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8315,7 +8322,7 @@
         <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>45</v>
@@ -8327,13 +8334,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8351,7 +8358,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8369,7 +8376,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>45</v>
@@ -8378,7 +8385,7 @@
         <v>45</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -8386,7 +8393,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8409,20 +8416,18 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>45</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>45</v>
@@ -8446,13 +8451,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8470,7 +8475,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8488,7 +8493,7 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>45</v>
@@ -8497,15 +8502,15 @@
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8516,10 +8521,10 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -8531,13 +8536,17 @@
         <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8549,7 +8558,7 @@
         <v>45</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>45</v>
@@ -8585,13 +8594,13 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8600,10 +8609,10 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>45</v>
@@ -8612,7 +8621,7 @@
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8620,18 +8629,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>53</v>
@@ -8646,10 +8655,10 @@
         <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8664,7 +8673,7 @@
         <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>45</v>
@@ -8700,13 +8709,13 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
@@ -8715,10 +8724,10 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
@@ -8727,19 +8736,19 @@
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8749,7 +8758,7 @@
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
@@ -8761,14 +8770,12 @@
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8781,7 +8788,7 @@
         <v>45</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>45</v>
@@ -8817,7 +8824,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8832,10 +8839,10 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -8844,19 +8851,19 @@
         <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8866,7 +8873,7 @@
         <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8878,12 +8885,14 @@
         <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8896,7 +8905,7 @@
         <v>45</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>45</v>
@@ -8908,13 +8917,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8932,7 +8941,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8947,10 +8956,10 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>45</v>
@@ -8959,7 +8968,7 @@
         <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8967,11 +8976,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8993,10 +9002,10 @@
         <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9011,7 +9020,7 @@
         <v>45</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>45</v>
@@ -9023,13 +9032,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -9047,7 +9056,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9062,10 +9071,10 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>45</v>
@@ -9074,19 +9083,19 @@
         <v>45</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9096,7 +9105,7 @@
         <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
@@ -9108,14 +9117,12 @@
         <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9128,7 +9135,7 @@
         <v>45</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>45</v>
@@ -9164,7 +9171,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9179,10 +9186,10 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>45</v>
@@ -9191,15 +9198,15 @@
         <v>45</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9213,7 +9220,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
@@ -9222,18 +9229,18 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9245,7 +9252,7 @@
         <v>45</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>444</v>
+        <v>45</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>45</v>
@@ -9281,7 +9288,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9296,10 +9303,10 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>45</v>
@@ -9308,15 +9315,15 @@
         <v>45</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9330,26 +9337,26 @@
         <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9362,7 +9369,7 @@
         <v>45</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>45</v>
@@ -9374,13 +9381,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9413,19 +9420,19 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>282</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -9433,7 +9440,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9456,19 +9463,17 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>167</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9493,13 +9498,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>454</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9517,7 +9522,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9535,16 +9540,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9552,7 +9557,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9563,7 +9568,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9575,19 +9580,19 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9636,13 +9641,13 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
@@ -9654,16 +9659,16 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9671,7 +9676,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9694,19 +9699,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9755,7 +9760,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9767,22 +9772,22 @@
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>478</v>
+        <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9790,7 +9795,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9801,7 +9806,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9813,16 +9818,20 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>145</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9870,28 +9879,28 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>147</v>
+        <v>474</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>45</v>
@@ -9905,18 +9914,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9928,17 +9937,15 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9987,25 +9994,25 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>45</v>
@@ -10022,11 +10029,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10039,26 +10046,24 @@
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>484</v>
+        <v>152</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>485</v>
+        <v>153</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10106,7 +10111,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10124,7 +10129,7 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>45</v>
@@ -10141,11 +10146,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10158,23 +10163,25 @@
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10199,13 +10206,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10223,7 +10230,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10235,22 +10242,22 @@
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>493</v>
+        <v>95</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -10258,7 +10265,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10269,7 +10276,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10281,17 +10288,17 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10316,13 +10323,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10340,13 +10347,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10358,16 +10365,16 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>223</v>
+        <v>495</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
@@ -10375,7 +10382,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10386,7 +10393,7 @@
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -10398,19 +10405,17 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>287</v>
+        <v>500</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10459,13 +10464,13 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -10477,16 +10482,16 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10494,7 +10499,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10505,7 +10510,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10517,17 +10522,19 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>508</v>
+        <v>289</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10576,13 +10583,13 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10594,16 +10601,16 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -10611,7 +10618,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10634,17 +10641,17 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>358</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>330</v>
+        <v>508</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10669,13 +10676,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>513</v>
+        <v>45</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10693,7 +10700,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10711,16 +10718,16 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>117</v>
+        <v>363</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>45</v>
@@ -10728,7 +10735,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10751,17 +10758,17 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>517</v>
+        <v>332</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10786,13 +10793,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10810,7 +10817,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10819,7 +10826,7 @@
         <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>520</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>64</v>
@@ -10828,16 +10835,16 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>521</v>
+        <v>117</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10845,7 +10852,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10868,16 +10875,18 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10925,7 +10934,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10934,7 +10943,7 @@
         <v>52</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>64</v>
@@ -10943,24 +10952,24 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>45</v>
+        <v>524</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10971,10 +10980,10 @@
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>45</v>
@@ -10983,20 +10992,16 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>473</v>
+        <v>195</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11044,13 +11049,13 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11059,13 +11064,13 @@
         <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>527</v>
+        <v>45</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>533</v>
+        <v>150</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>45</v>
@@ -11077,9 +11082,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11090,10 +11095,10 @@
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>45</v>
@@ -11102,16 +11107,20 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>145</v>
+        <v>530</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11159,28 +11168,28 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>147</v>
+        <v>529</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>45</v>
+        <v>529</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>148</v>
+        <v>534</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>45</v>
@@ -11194,18 +11203,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -11217,17 +11226,15 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11276,25 +11283,25 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>45</v>
@@ -11311,11 +11318,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11328,26 +11335,24 @@
         <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>484</v>
+        <v>152</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>485</v>
+        <v>153</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11395,7 +11400,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11413,7 +11418,7 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>45</v>
@@ -11428,44 +11433,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I81" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>540</v>
+        <v>134</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>541</v>
+        <v>135</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11490,11 +11495,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X81" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y81" t="s" s="2">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11512,42 +11519,42 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>537</v>
+        <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>543</v>
+        <v>95</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>544</v>
+        <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>545</v>
+        <v>45</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11555,13 +11562,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
@@ -11570,19 +11577,19 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11607,13 +11614,11 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>45</v>
+        <v>544</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11631,10 +11636,10 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>52</v>
@@ -11646,19 +11651,19 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
@@ -11666,18 +11671,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>555</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>45</v>
@@ -11689,18 +11694,20 @@
         <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>556</v>
+        <v>210</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11748,13 +11755,13 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
@@ -11766,16 +11773,16 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>148</v>
+        <v>554</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>45</v>
@@ -11783,18 +11790,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>45</v>
+        <v>557</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
@@ -11803,23 +11810,21 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>200</v>
+        <v>558</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11867,13 +11872,13 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>45</v>
@@ -11885,16 +11890,16 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>567</v>
+        <v>150</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>45</v>
+        <v>563</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>45</v>
@@ -11902,7 +11907,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11913,31 +11918,31 @@
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>473</v>
+        <v>202</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11986,13 +11991,13 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -12004,10 +12009,10 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>148</v>
+        <v>569</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>45</v>
@@ -12021,7 +12026,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12032,28 +12037,32 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>145</v>
+        <v>571</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12101,28 +12110,28 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>147</v>
+        <v>570</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>148</v>
+        <v>575</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>45</v>
@@ -12136,18 +12145,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12159,17 +12168,15 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12218,25 +12225,25 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>45</v>
@@ -12253,11 +12260,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12270,26 +12277,24 @@
         <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>484</v>
+        <v>152</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>485</v>
+        <v>153</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12337,7 +12342,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12355,7 +12360,7 @@
         <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>45</v>
@@ -12372,41 +12377,43 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>578</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>579</v>
+        <v>486</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>580</v>
+        <v>487</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>45</v>
       </c>
@@ -12454,34 +12461,34 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>582</v>
+        <v>45</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>45</v>
@@ -12489,7 +12496,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12512,15 +12519,17 @@
         <v>53</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12545,13 +12554,13 @@
         <v>45</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>585</v>
+        <v>45</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>586</v>
+        <v>45</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>45</v>
@@ -12569,7 +12578,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>52</v>
@@ -12587,23 +12596,138 @@
         <v>45</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO90" t="s" s="2">
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO90">
+  <autoFilter ref="A1:AO91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12613,7 +12737,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="622">
   <si>
     <t>Path</t>
   </si>
@@ -401,6 +401,12 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>preferred-contact-time</t>
   </si>
   <si>
@@ -415,10 +421,10 @@
 </t>
   </si>
   <si>
-    <t>last-exposure-date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/last-exposure-date}
+    <t>last-date-of-exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/last-date-of-exposure}
 </t>
   </si>
   <si>
@@ -436,6 +442,83 @@
 </t>
   </si>
   <si>
+    <t>monitoring-plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/monitoring-plan}
+</t>
+  </si>
+  <si>
+    <t>assigned-user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/assigned-user}
+</t>
+  </si>
+  <si>
+    <t>additional-planned-travel-start-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/additional-planned-travel-start-date}
+</t>
+  </si>
+  <si>
+    <t>port-of-origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/port-of-origin}
+</t>
+  </si>
+  <si>
+    <t>date-of-departure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/date-of-departure}
+</t>
+  </si>
+  <si>
+    <t>flight-or-vessel-number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/flight-or-vessel-number}
+</t>
+  </si>
+  <si>
+    <t>flight-or-vessel-carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/flight-or-vessel-carrier}
+</t>
+  </si>
+  <si>
+    <t>date-of-arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/date-of-arrival}
+</t>
+  </si>
+  <si>
+    <t>exposure-notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/exposure-notes}
+</t>
+  </si>
+  <si>
+    <t>travel-related-notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/travel-related-notes}
+</t>
+  </si>
+  <si>
+    <t>additional-planned-travel-notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/additional-planned-travel-notes}
+</t>
+  </si>
+  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -475,6 +558,13 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Slice to distinguish the identifier for State/Local ID.</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -677,6 +767,18 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>StateLocalId</t>
+  </si>
+  <si>
+    <t>The State/Local ID assigned by the state or jurisdiction’s monitoring policies.</t>
+  </si>
+  <si>
+    <t>The State/Local ID is the variable to represent the assigned state or local ID of the monitoree. This field is determined from the assigned state or jurisdiction’s monitoring policies.</t>
+  </si>
+  <si>
+    <t>http://saraalert.org/SaraAlert/state-local-id</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -948,6 +1050,13 @@
   </si>
   <si>
     <t>Patient.telecom.extension</t>
+  </si>
+  <si>
+    <t>phone-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/phone-type}
+</t>
   </si>
   <si>
     <t>Patient.telecom.system</t>
@@ -2007,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO91"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2017,7 +2126,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.7578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2043,7 +2152,7 @@
     <col min="25" max="25" width="56.09375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="49.60546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.22265625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3495,10 +3604,10 @@
         <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3567,7 +3676,7 @@
         <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>45</v>
@@ -3587,7 +3696,7 @@
         <v>96</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>45</v>
@@ -3609,7 +3718,7 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>98</v>
@@ -3704,7 +3813,7 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>45</v>
@@ -3726,13 +3835,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3801,7 +3910,7 @@
         <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>45</v>
@@ -3821,7 +3930,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>45</v>
@@ -3843,7 +3952,7 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>98</v>
@@ -3938,7 +4047,7 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>45</v>
@@ -3960,13 +4069,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4035,7 +4144,7 @@
         <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>45</v>
@@ -4055,7 +4164,7 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
@@ -4077,7 +4186,7 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>98</v>
@@ -4167,45 +4276,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -4253,7 +4360,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -4288,18 +4395,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>53</v>
@@ -4308,21 +4417,19 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4370,7 +4477,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4382,32 +4489,34 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4419,7 +4528,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -4428,13 +4537,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4485,25 +4594,25 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>45</v>
@@ -4518,23 +4627,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4543,17 +4654,15 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4590,19 +4699,19 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4620,7 +4729,7 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>45</v>
@@ -4635,11 +4744,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4651,29 +4762,25 @@
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4697,13 +4804,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4721,25 +4828,25 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>45</v>
@@ -4748,17 +4855,19 @@
         <v>45</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4770,29 +4879,25 @@
         <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4816,13 +4921,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4840,25 +4945,25 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>45</v>
@@ -4867,7 +4972,7 @@
         <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4875,15 +4980,17 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>52</v>
@@ -4895,23 +5002,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4923,7 +5026,7 @@
         <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>45</v>
@@ -4959,25 +5062,25 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
@@ -4986,7 +5089,7 @@
         <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4994,15 +5097,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
@@ -5014,20 +5119,18 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -5040,7 +5143,7 @@
         <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>45</v>
@@ -5076,25 +5179,25 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>45</v>
@@ -5103,17 +5206,19 @@
         <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>45</v>
       </c>
@@ -5125,22 +5230,22 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5191,25 +5296,25 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>45</v>
@@ -5218,17 +5323,19 @@
         <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5240,26 +5347,24 @@
         <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -5308,25 +5413,25 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>45</v>
@@ -5335,7 +5440,7 @@
         <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5343,9 +5448,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5360,32 +5467,26 @@
         <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5429,31 +5530,31 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5462,44 +5563,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5548,7 +5649,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5560,22 +5661,22 @@
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5583,7 +5684,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5591,31 +5692,33 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5651,46 +5754,46 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5698,18 +5801,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5721,17 +5824,15 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5768,37 +5869,37 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>45</v>
@@ -5815,43 +5916,41 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5875,49 +5974,49 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>45</v>
@@ -5926,7 +6025,7 @@
         <v>45</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5934,7 +6033,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5951,25 +6050,25 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5994,13 +6093,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -6018,7 +6117,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -6036,7 +6135,7 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>45</v>
@@ -6045,19 +6144,19 @@
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6067,7 +6166,7 @@
         <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
@@ -6076,18 +6175,20 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -6111,13 +6212,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -6135,7 +6236,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6144,16 +6245,16 @@
         <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>45</v>
@@ -6162,7 +6263,7 @@
         <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -6170,18 +6271,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>53</v>
@@ -6193,18 +6294,20 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -6216,7 +6319,7 @@
         <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>45</v>
@@ -6252,25 +6355,25 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>45</v>
@@ -6279,15 +6382,15 @@
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6295,13 +6398,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -6313,12 +6416,14 @@
         <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6331,7 +6436,7 @@
         <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>45</v>
@@ -6367,13 +6472,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6382,10 +6487,10 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>45</v>
@@ -6394,7 +6499,7 @@
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6402,7 +6507,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6413,7 +6518,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6425,13 +6530,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6482,13 +6587,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6500,7 +6605,7 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>45</v>
@@ -6509,7 +6614,7 @@
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6517,7 +6622,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6540,18 +6645,18 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6599,7 +6704,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6617,7 +6722,7 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>45</v>
@@ -6626,7 +6731,7 @@
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6634,9 +6739,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6645,7 +6752,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>53</v>
@@ -6657,19 +6764,19 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6718,7 +6825,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6733,19 +6840,19 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6753,7 +6860,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6779,10 +6886,10 @@
         <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6833,7 +6940,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6851,7 +6958,7 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>45</v>
@@ -6868,11 +6975,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6894,13 +7001,13 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6941,7 +7048,7 @@
         <v>100</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>45</v>
@@ -6950,7 +7057,7 @@
         <v>101</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6968,7 +7075,7 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>45</v>
@@ -6983,9 +7090,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6993,16 +7100,16 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
@@ -7011,13 +7118,17 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -7041,13 +7152,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -7065,7 +7176,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7074,16 +7185,16 @@
         <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>45</v>
@@ -7092,15 +7203,15 @@
         <v>45</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7108,13 +7219,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -7123,19 +7234,19 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7160,13 +7271,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7184,7 +7295,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7199,10 +7310,10 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>45</v>
@@ -7211,7 +7322,7 @@
         <v>45</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -7219,7 +7330,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7227,7 +7338,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>52</v>
@@ -7236,25 +7347,25 @@
         <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7264,10 +7375,10 @@
         <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>45</v>
@@ -7279,11 +7390,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7301,7 +7414,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7316,10 +7429,10 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>45</v>
@@ -7328,15 +7441,15 @@
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7344,13 +7457,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7359,16 +7472,16 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7382,7 +7495,7 @@
         <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>45</v>
@@ -7418,7 +7531,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7433,10 +7546,10 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>45</v>
@@ -7445,7 +7558,7 @@
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -7453,7 +7566,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>220</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7476,13 +7589,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7533,7 +7646,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7551,7 +7664,7 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>45</v>
@@ -7560,15 +7673,15 @@
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7576,13 +7689,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7591,20 +7704,18 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7628,11 +7739,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7650,7 +7763,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7665,19 +7778,19 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>338</v>
+        <v>234</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7685,7 +7798,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7702,30 +7815,32 @@
         <v>53</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7769,7 +7884,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7784,27 +7899,27 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7812,34 +7927,34 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7888,42 +8003,42 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7934,32 +8049,28 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -8007,34 +8118,34 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>175</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -8042,18 +8153,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>259</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -8065,15 +8176,17 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8110,37 +8223,37 @@
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
@@ -8157,41 +8270,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8215,49 +8330,49 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
@@ -8266,7 +8381,7 @@
         <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8274,7 +8389,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8291,25 +8406,25 @@
         <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8322,7 +8437,7 @@
         <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>45</v>
@@ -8334,13 +8449,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8358,7 +8473,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8376,7 +8491,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>45</v>
@@ -8385,19 +8500,19 @@
         <v>45</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8407,7 +8522,7 @@
         <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8416,16 +8531,16 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8439,7 +8554,7 @@
         <v>45</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>45</v>
@@ -8451,13 +8566,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8475,7 +8590,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>385</v>
+        <v>283</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8484,16 +8599,16 @@
         <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>45</v>
@@ -8502,29 +8617,29 @@
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -8536,17 +8651,15 @@
         <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8558,7 +8671,7 @@
         <v>45</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>45</v>
@@ -8594,25 +8707,25 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>45</v>
@@ -8621,15 +8734,15 @@
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8643,7 +8756,7 @@
         <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>45</v>
@@ -8655,10 +8768,10 @@
         <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8673,7 +8786,7 @@
         <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>45</v>
@@ -8709,7 +8822,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8724,10 +8837,10 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
@@ -8736,29 +8849,29 @@
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
@@ -8770,10 +8883,10 @@
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8788,7 +8901,7 @@
         <v>45</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>45</v>
@@ -8824,13 +8937,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8839,10 +8952,10 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -8851,7 +8964,7 @@
         <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -8859,11 +8972,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>307</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8882,18 +8995,18 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>308</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8905,7 +9018,7 @@
         <v>45</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>45</v>
@@ -8941,7 +9054,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>415</v>
+        <v>311</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8959,7 +9072,7 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>416</v>
+        <v>312</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>45</v>
@@ -8968,7 +9081,7 @@
         <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8976,18 +9089,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>314</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>53</v>
@@ -8999,16 +9112,20 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -9032,13 +9149,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -9056,13 +9173,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -9071,31 +9188,31 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9105,22 +9222,22 @@
         <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>429</v>
+        <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>174</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9135,7 +9252,7 @@
         <v>45</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>45</v>
@@ -9171,7 +9288,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9183,13 +9300,13 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>433</v>
+        <v>176</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>45</v>
@@ -9198,7 +9315,7 @@
         <v>45</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>45</v>
@@ -9206,18 +9323,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -9226,19 +9343,19 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>178</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>179</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
+        <v>158</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9276,37 +9393,37 @@
         <v>45</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>181</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>45</v>
@@ -9315,7 +9432,7 @@
         <v>45</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9323,9 +9440,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9343,21 +9462,19 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>443</v>
+        <v>120</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>121</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9369,7 +9486,7 @@
         <v>45</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>45</v>
@@ -9405,25 +9522,25 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>282</v>
+        <v>95</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>45</v>
@@ -9432,15 +9549,15 @@
         <v>45</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>328</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9448,33 +9565,31 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>330</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9498,13 +9613,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>453</v>
+        <v>331</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>454</v>
+        <v>332</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9522,7 +9637,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9531,33 +9646,33 @@
         <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>457</v>
+        <v>336</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>337</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9565,34 +9680,34 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>459</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9641,7 +9756,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9656,27 +9771,27 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>464</v>
+        <v>343</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>465</v>
+        <v>344</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>345</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9687,31 +9802,31 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>467</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>468</v>
+        <v>346</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>347</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>470</v>
+        <v>348</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>471</v>
+        <v>349</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9736,13 +9851,11 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9760,13 +9873,13 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>466</v>
+        <v>351</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9775,19 +9888,19 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>472</v>
+        <v>268</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9795,7 +9908,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>353</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9806,7 +9919,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9815,23 +9928,21 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>476</v>
+        <v>355</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9879,34 +9990,34 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>474</v>
+        <v>358</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>480</v>
+        <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>481</v>
+        <v>176</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>45</v>
@@ -9914,7 +10025,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>359</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9934,16 +10045,16 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9994,7 +10105,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>149</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10006,13 +10117,13 @@
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>45</v>
@@ -10021,49 +10132,51 @@
         <v>45</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10087,13 +10200,11 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10111,77 +10222,77 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>371</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>486</v>
+        <v>373</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>487</v>
+        <v>374</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>135</v>
+        <v>376</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10230,42 +10341,42 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>95</v>
+        <v>377</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10276,29 +10387,31 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>492</v>
+        <v>386</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10323,13 +10436,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10347,13 +10460,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10365,24 +10478,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>495</v>
+        <v>387</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10393,29 +10506,31 @@
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>219</v>
+        <v>390</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>498</v>
+        <v>391</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>500</v>
+        <v>394</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10464,13 +10579,13 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -10479,19 +10594,19 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>150</v>
+        <v>396</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10499,7 +10614,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>398</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10510,7 +10625,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10522,20 +10637,16 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>503</v>
+        <v>173</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10583,34 +10694,34 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>502</v>
+        <v>175</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>506</v>
+        <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -10618,18 +10729,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>399</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10641,18 +10752,18 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>358</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>508</v>
+        <v>178</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10688,46 +10799,46 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>507</v>
+        <v>181</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>45</v>
@@ -10735,7 +10846,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10752,23 +10863,25 @@
         <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>514</v>
+        <v>404</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10781,7 +10894,7 @@
         <v>45</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>45</v>
@@ -10793,13 +10906,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>515</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10817,7 +10930,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>512</v>
+        <v>408</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10835,16 +10948,16 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10852,7 +10965,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10872,21 +10985,21 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>519</v>
+        <v>411</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10898,7 +11011,7 @@
         <v>45</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>45</v>
@@ -10910,13 +11023,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10934,7 +11047,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>518</v>
+        <v>417</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10943,7 +11056,7 @@
         <v>52</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>522</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>64</v>
@@ -10952,16 +11065,16 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>523</v>
+        <v>268</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>45</v>
@@ -10969,7 +11082,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>525</v>
+        <v>419</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10989,19 +11102,23 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>526</v>
+        <v>420</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11013,7 +11130,7 @@
         <v>45</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>45</v>
@@ -11049,7 +11166,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>525</v>
+        <v>424</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11067,16 +11184,16 @@
         <v>45</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>528</v>
+        <v>276</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>45</v>
@@ -11084,7 +11201,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11104,23 +11221,19 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>475</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>530</v>
+        <v>427</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11132,7 +11245,7 @@
         <v>45</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>45</v>
@@ -11168,7 +11281,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>529</v>
+        <v>430</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11183,31 +11296,31 @@
         <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>534</v>
+        <v>431</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>433</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11217,22 +11330,22 @@
         <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>147</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11247,7 +11360,7 @@
         <v>45</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>45</v>
@@ -11283,7 +11396,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>149</v>
+        <v>438</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11295,13 +11408,13 @@
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>150</v>
+        <v>439</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>45</v>
@@ -11310,7 +11423,7 @@
         <v>45</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>45</v>
@@ -11318,18 +11431,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>537</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>131</v>
+        <v>442</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -11338,19 +11451,19 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>152</v>
+        <v>443</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>134</v>
+        <v>445</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11364,7 +11477,7 @@
         <v>45</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>45</v>
@@ -11400,25 +11513,25 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>155</v>
+        <v>447</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>150</v>
+        <v>448</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>45</v>
@@ -11427,51 +11540,47 @@
         <v>45</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>538</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11495,13 +11604,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>45</v>
+        <v>454</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11519,25 +11628,25 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>95</v>
+        <v>457</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>45</v>
@@ -11546,7 +11655,7 @@
         <v>45</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
@@ -11554,15 +11663,15 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>52</v>
@@ -11574,23 +11683,19 @@
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>461</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>45</v>
       </c>
@@ -11602,7 +11707,7 @@
         <v>45</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>45</v>
@@ -11614,11 +11719,13 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X82" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y82" t="s" s="2">
-        <v>544</v>
+        <v>45</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11636,10 +11743,10 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>539</v>
+        <v>464</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>52</v>
@@ -11651,19 +11758,19 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>539</v>
+        <v>320</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>546</v>
+        <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>547</v>
+        <v>466</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
@@ -11671,7 +11778,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11691,23 +11798,21 @@
         <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>549</v>
+        <v>468</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11755,7 +11860,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11773,58 +11878,58 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>555</v>
+        <v>473</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>557</v>
+        <v>45</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>558</v>
+        <v>221</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>475</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11836,7 +11941,7 @@
         <v>45</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>45</v>
@@ -11872,13 +11977,13 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>45</v>
@@ -11887,19 +11992,19 @@
         <v>64</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>562</v>
+        <v>312</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>45</v>
@@ -11907,7 +12012,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>564</v>
+        <v>481</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11927,22 +12032,20 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>565</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>568</v>
+        <v>484</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11967,13 +12070,13 @@
         <v>45</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -11991,7 +12094,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>564</v>
+        <v>481</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -12009,16 +12112,16 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>569</v>
+        <v>488</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>45</v>
@@ -12026,7 +12129,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12037,31 +12140,31 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>571</v>
+        <v>492</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>572</v>
+        <v>493</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>573</v>
+        <v>494</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>574</v>
+        <v>495</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12110,13 +12213,13 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
@@ -12128,16 +12231,16 @@
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>575</v>
+        <v>496</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>45</v>
@@ -12145,7 +12248,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>576</v>
+        <v>498</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12156,7 +12259,7 @@
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12168,16 +12271,20 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>54</v>
+        <v>499</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>147</v>
+        <v>500</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12225,34 +12332,34 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>149</v>
+        <v>498</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>150</v>
+        <v>504</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>45</v>
@@ -12260,11 +12367,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>506</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12283,18 +12390,20 @@
         <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>97</v>
+        <v>507</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>152</v>
+        <v>508</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>153</v>
+        <v>509</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12342,7 +12451,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>155</v>
+        <v>506</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12354,16 +12463,16 @@
         <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>150</v>
+        <v>513</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>45</v>
@@ -12377,43 +12486,39 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>486</v>
+        <v>173</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
       </c>
@@ -12461,25 +12566,25 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>488</v>
+        <v>175</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>45</v>
@@ -12496,18 +12601,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12516,19 +12621,19 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>580</v>
+        <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>581</v>
+        <v>178</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>582</v>
+        <v>179</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>583</v>
+        <v>158</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12578,34 +12683,34 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>181</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>584</v>
+        <v>45</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>45</v>
@@ -12613,39 +12718,43 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>45</v>
       </c>
@@ -12669,65 +12778,2528 @@
         <v>45</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X103" s="2"/>
+      <c r="Y103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI91" t="s" s="2">
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI105" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO91" t="s" s="2">
+      <c r="AJ105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO91">
+  <autoFilter ref="A1:AO112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12737,7 +15309,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$131</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="679">
   <si>
     <t>Path</t>
   </si>
@@ -401,10 +401,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Preferred Contact Method</t>
+  </si>
+  <si>
+    <t>Represents the form in which the monitoree receives their daily symptom reports (options are: `E-mailed Web Link`, `SMS Texted Weblink`, `Telephone call`, and `SMS Text-message`).</t>
   </si>
   <si>
     <t>preferred-contact-time</t>
@@ -414,6 +414,12 @@
 </t>
   </si>
   <si>
+    <t>Preferred Contact Time</t>
+  </si>
+  <si>
+    <t>Represents the time period that the system sends out symptom reports to a monitoree (options are: `Morning`, `Afternoon`, `Evening`).</t>
+  </si>
+  <si>
     <t>symptom-onset-date</t>
   </si>
   <si>
@@ -421,6 +427,12 @@
 </t>
   </si>
   <si>
+    <t>Symptom Onset Date</t>
+  </si>
+  <si>
+    <t>When the monitoree`s first symptoms appeared for use in the Sara Alert isolation workflow.</t>
+  </si>
+  <si>
     <t>last-date-of-exposure</t>
   </si>
   <si>
@@ -428,6 +440,12 @@
 </t>
   </si>
   <si>
+    <t>Last Date of Exposure</t>
+  </si>
+  <si>
+    <t>When the monitoree`s last exposure occurred for use in the Sara Alert exposure workflow.</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
@@ -435,6 +453,12 @@
 </t>
   </si>
   <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>If the monitoree should be in the isolation workflow (omitting this extension defaults this value to false, leaving the monitoree in the exposure workflow.</t>
+  </si>
+  <si>
     <t>full-assigned-jurisdiction-path</t>
   </si>
   <si>
@@ -442,6 +466,12 @@
 </t>
   </si>
   <si>
+    <t>Full Assigned Jurisdiction Path</t>
+  </si>
+  <si>
+    <t>Represents the jurisdiction in which this monitoree is enrolled.</t>
+  </si>
+  <si>
     <t>monitoring-plan</t>
   </si>
   <si>
@@ -449,6 +479,12 @@
 </t>
   </si>
   <si>
+    <t>Monitoring Plan</t>
+  </si>
+  <si>
+    <t>Represents the monitoring approach selected by public health based on CDC or local guidance (options are: `None`, `Daily active monitoring`, `Self-monitoring with public health supervision`, `Self-monitoring with delegated supervision`, `Self-observation`).</t>
+  </si>
+  <si>
     <t>assigned-user</t>
   </si>
   <si>
@@ -456,6 +492,12 @@
 </t>
   </si>
   <si>
+    <t>Assigned User</t>
+  </si>
+  <si>
+    <t>Represents the user or group within a jurisdiction responsible for monitoring a monitoree.</t>
+  </si>
+  <si>
     <t>additional-planned-travel-start-date</t>
   </si>
   <si>
@@ -463,6 +505,12 @@
 </t>
   </si>
   <si>
+    <t>Additional Planned Travel Start Date</t>
+  </si>
+  <si>
+    <t>Represents the date that the monitoree is planning to begin their additional travel.</t>
+  </si>
+  <si>
     <t>port-of-origin</t>
   </si>
   <si>
@@ -470,6 +518,12 @@
 </t>
   </si>
   <si>
+    <t>Port of Origin</t>
+  </si>
+  <si>
+    <t>Represents the airport, station, or docking point that the monitoree traveled from.</t>
+  </si>
+  <si>
     <t>date-of-departure</t>
   </si>
   <si>
@@ -477,6 +531,12 @@
 </t>
   </si>
   <si>
+    <t>Date of Departure</t>
+  </si>
+  <si>
+    <t>Represents the date that the monitoree traveled from the Port of Origin to the United States.</t>
+  </si>
+  <si>
     <t>flight-or-vessel-number</t>
   </si>
   <si>
@@ -484,6 +544,12 @@
 </t>
   </si>
   <si>
+    <t>Flight or Vessel Number</t>
+  </si>
+  <si>
+    <t>Represents the plane, train, ship, or other vessel that the monitoree used to travel to their destination.</t>
+  </si>
+  <si>
     <t>flight-or-vessel-carrier</t>
   </si>
   <si>
@@ -491,6 +557,12 @@
 </t>
   </si>
   <si>
+    <t>Flight or Vessel Carrier</t>
+  </si>
+  <si>
+    <t>Represents the carrier, operating company, or provider of the flight or vessel.</t>
+  </si>
+  <si>
     <t>date-of-arrival</t>
   </si>
   <si>
@@ -498,6 +570,12 @@
 </t>
   </si>
   <si>
+    <t>Date of Arrival</t>
+  </si>
+  <si>
+    <t>Represents when the monitoree entered the United States after travel.</t>
+  </si>
+  <si>
     <t>exposure-notes</t>
   </si>
   <si>
@@ -505,6 +583,12 @@
 </t>
   </si>
   <si>
+    <t>Exposure Notes</t>
+  </si>
+  <si>
+    <t>Represents any additional notes about the monitoree’s exposure history or case information history. This can include details about the interaction with a known case, high risk activities, common exposure, etc.</t>
+  </si>
+  <si>
     <t>travel-related-notes</t>
   </si>
   <si>
@@ -512,11 +596,23 @@
 </t>
   </si>
   <si>
+    <t>Travel Related Notes</t>
+  </si>
+  <si>
+    <t>Represents any additional notes about the monitoree’s travel history. This can include details about the nature of the trip, contact with anyone symptomatic, original country departed from, etc.</t>
+  </si>
+  <si>
     <t>additional-planned-travel-notes</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/additional-planned-travel-notes}
 </t>
+  </si>
+  <si>
+    <t>Additional Planned Travel Notes</t>
+  </si>
+  <si>
+    <t>Represents any additional notes about the monitoree’s planned travel. This can include details about the nature of the trip, planned social interaction, additional destinations, etc.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1059,6 +1155,12 @@
 </t>
   </si>
   <si>
+    <t>Phone Type</t>
+  </si>
+  <si>
+    <t>Represents the type of phone attached to the phone number. This field can be used to determine a monitoree’s ability to receive SMS Texted Weblink, Telephone call, or SMS Text-message during the selection of Preferred Reporting Method (options are: `Smartphone`, `Landline`, `Plain Cell`).</t>
+  </si>
+  <si>
     <t>Patient.telecom.system</t>
   </si>
   <si>
@@ -1263,6 +1365,13 @@
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:extension('http://saraalert.org/SaraAlert/StructureDefinition/address-type').value}
+</t>
+  </si>
+  <si>
+    <t>Slice to distinguish a Foreign Address (outside of the USA).</t>
   </si>
   <si>
     <t>addr</t>
@@ -1528,6 +1637,71 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>ForeignAddress</t>
+  </si>
+  <si>
+    <t>address-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/address-type}
+</t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>Indicates if a monitoree's address is within the USA, or outside of the USA (options are: `USA` and `Foreign`). The extension only has meaning when used on the 'Patient.address' element. If this extension is not present the address is assumed to be within the USA.</t>
+  </si>
+  <si>
+    <t>Patient.address.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://saraalert.org/StructureDefinition/address-type</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.address.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>Foreign</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -2116,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO112"/>
+  <dimension ref="A1:AO131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2151,8 +2325,8 @@
     <col min="24" max="24" width="101.125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.09375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="49.60546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="85.05078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="56.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.22265625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3676,7 +3850,7 @@
         <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>45</v>
@@ -3721,10 +3895,10 @@
         <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3813,7 +3987,7 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>45</v>
@@ -3835,13 +4009,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3910,7 +4084,7 @@
         <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>45</v>
@@ -3930,7 +4104,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>45</v>
@@ -3952,13 +4126,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4047,7 +4221,7 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>45</v>
@@ -4069,13 +4243,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4144,7 +4318,7 @@
         <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>45</v>
@@ -4164,7 +4338,7 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
@@ -4186,13 +4360,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4281,7 +4455,7 @@
         <v>96</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
@@ -4303,13 +4477,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4378,7 +4552,7 @@
         <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>45</v>
@@ -4398,7 +4572,7 @@
         <v>96</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
@@ -4420,13 +4594,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4515,7 +4689,7 @@
         <v>96</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4537,13 +4711,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4632,7 +4806,7 @@
         <v>96</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
@@ -4654,13 +4828,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4729,7 +4903,7 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>45</v>
@@ -4749,7 +4923,7 @@
         <v>96</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
@@ -4771,13 +4945,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4866,7 +5040,7 @@
         <v>96</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
@@ -4888,13 +5062,13 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4963,7 +5137,7 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>45</v>
@@ -4983,7 +5157,7 @@
         <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
@@ -5005,13 +5179,13 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5080,7 +5254,7 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
@@ -5100,7 +5274,7 @@
         <v>96</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>45</v>
@@ -5122,13 +5296,13 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5197,7 +5371,7 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>45</v>
@@ -5217,7 +5391,7 @@
         <v>96</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>45</v>
@@ -5239,13 +5413,13 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5314,7 +5488,7 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>45</v>
@@ -5334,7 +5508,7 @@
         <v>96</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
@@ -5356,13 +5530,13 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5451,7 +5625,7 @@
         <v>96</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
@@ -5473,13 +5647,13 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5548,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>45</v>
@@ -5565,11 +5739,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5591,16 +5765,16 @@
         <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5649,7 +5823,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5684,7 +5858,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5707,17 +5881,17 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5754,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
@@ -5766,7 +5940,7 @@
         <v>101</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5781,19 +5955,19 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5801,7 +5975,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5827,10 +6001,10 @@
         <v>54</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5881,7 +6055,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5899,7 +6073,7 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>45</v>
@@ -5916,11 +6090,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5942,13 +6116,13 @@
         <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5989,7 +6163,7 @@
         <v>100</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>45</v>
@@ -5998,7 +6172,7 @@
         <v>101</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -6016,7 +6190,7 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>45</v>
@@ -6033,7 +6207,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6059,16 +6233,16 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -6093,13 +6267,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -6117,7 +6291,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -6135,7 +6309,7 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>45</v>
@@ -6152,7 +6326,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6175,19 +6349,19 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6212,13 +6386,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -6236,7 +6410,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6254,7 +6428,7 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>45</v>
@@ -6263,7 +6437,7 @@
         <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -6271,7 +6445,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6297,16 +6471,16 @@
         <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6319,7 +6493,7 @@
         <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>45</v>
@@ -6355,7 +6529,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6370,10 +6544,10 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>45</v>
@@ -6382,7 +6556,7 @@
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6390,7 +6564,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6416,13 +6590,13 @@
         <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6436,7 +6610,7 @@
         <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>45</v>
@@ -6472,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6487,10 +6661,10 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>45</v>
@@ -6499,7 +6673,7 @@
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6507,7 +6681,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6530,13 +6704,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6587,7 +6761,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6605,7 +6779,7 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>45</v>
@@ -6614,7 +6788,7 @@
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6622,7 +6796,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6645,16 +6819,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6704,7 +6878,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6722,7 +6896,7 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>45</v>
@@ -6731,7 +6905,7 @@
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6739,10 +6913,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
@@ -6764,19 +6938,19 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6825,7 +6999,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6840,19 +7014,19 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6860,7 +7034,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6886,10 +7060,10 @@
         <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6940,7 +7114,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6958,7 +7132,7 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>45</v>
@@ -6975,11 +7149,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7001,13 +7175,13 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7048,7 +7222,7 @@
         <v>100</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>45</v>
@@ -7057,7 +7231,7 @@
         <v>101</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -7075,7 +7249,7 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>45</v>
@@ -7092,7 +7266,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7118,16 +7292,16 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7152,13 +7326,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -7176,7 +7350,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7194,7 +7368,7 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>45</v>
@@ -7211,7 +7385,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7234,19 +7408,19 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7271,13 +7445,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7295,7 +7469,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7313,7 +7487,7 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>45</v>
@@ -7322,7 +7496,7 @@
         <v>45</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -7330,7 +7504,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7356,16 +7530,16 @@
         <v>66</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7375,10 +7549,10 @@
         <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>45</v>
@@ -7414,7 +7588,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7429,10 +7603,10 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>45</v>
@@ -7441,7 +7615,7 @@
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7449,7 +7623,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7475,13 +7649,13 @@
         <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7495,7 +7669,7 @@
         <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>45</v>
@@ -7531,7 +7705,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7546,10 +7720,10 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>45</v>
@@ -7558,7 +7732,7 @@
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -7566,7 +7740,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7589,13 +7763,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7646,7 +7820,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7664,7 +7838,7 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>45</v>
@@ -7673,7 +7847,7 @@
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7681,7 +7855,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7704,16 +7878,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7763,7 +7937,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7781,7 +7955,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>45</v>
@@ -7790,7 +7964,7 @@
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7798,7 +7972,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7821,25 +7995,25 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>45</v>
@@ -7884,7 +8058,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7902,13 +8076,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7919,7 +8093,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7942,19 +8116,19 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -8003,7 +8177,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -8015,22 +8189,22 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -8038,7 +8212,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8064,10 +8238,10 @@
         <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8118,7 +8292,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8136,7 +8310,7 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>45</v>
@@ -8153,11 +8327,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8179,13 +8353,13 @@
         <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8226,7 +8400,7 @@
         <v>100</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>45</v>
@@ -8235,7 +8409,7 @@
         <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8253,7 +8427,7 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
@@ -8270,7 +8444,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8296,16 +8470,16 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8330,13 +8504,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8354,7 +8528,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8372,7 +8546,7 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
@@ -8381,7 +8555,7 @@
         <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8389,7 +8563,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8415,16 +8589,16 @@
         <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8473,7 +8647,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8491,7 +8665,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>45</v>
@@ -8500,7 +8674,7 @@
         <v>45</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -8508,11 +8682,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8534,13 +8708,13 @@
         <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8590,7 +8764,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8599,16 +8773,16 @@
         <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>45</v>
@@ -8617,7 +8791,7 @@
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8625,11 +8799,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8651,13 +8825,13 @@
         <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8707,7 +8881,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8716,16 +8890,16 @@
         <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>45</v>
@@ -8734,7 +8908,7 @@
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8742,7 +8916,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8768,10 +8942,10 @@
         <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8822,7 +8996,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8840,7 +9014,7 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
@@ -8849,7 +9023,7 @@
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8857,7 +9031,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8883,10 +9057,10 @@
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8937,7 +9111,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8955,7 +9129,7 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -8964,7 +9138,7 @@
         <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -8972,7 +9146,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8995,17 +9169,17 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -9054,7 +9228,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9072,7 +9246,7 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>45</v>
@@ -9081,7 +9255,7 @@
         <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -9089,7 +9263,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9112,19 +9286,19 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9173,7 +9347,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9188,19 +9362,19 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9208,7 +9382,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9234,10 +9408,10 @@
         <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9288,7 +9462,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9306,7 +9480,7 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>45</v>
@@ -9323,11 +9497,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9349,13 +9523,13 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9396,7 +9570,7 @@
         <v>100</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>45</v>
@@ -9405,7 +9579,7 @@
         <v>101</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9423,7 +9597,7 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>45</v>
@@ -9440,10 +9614,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>45</v>
@@ -9465,13 +9639,13 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>121</v>
+        <v>361</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9522,7 +9696,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9540,7 +9714,7 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>45</v>
@@ -9557,7 +9731,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9583,10 +9757,10 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9613,13 +9787,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9637,7 +9811,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9646,16 +9820,16 @@
         <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>45</v>
@@ -9664,7 +9838,7 @@
         <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9672,7 +9846,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9698,16 +9872,16 @@
         <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9756,7 +9930,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9771,10 +9945,10 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>45</v>
@@ -9783,7 +9957,7 @@
         <v>45</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9791,7 +9965,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9817,16 +9991,16 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9851,11 +10025,11 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9873,7 +10047,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9888,10 +10062,10 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>45</v>
@@ -9900,7 +10074,7 @@
         <v>45</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9908,7 +10082,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9931,16 +10105,16 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9990,7 +10164,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10008,7 +10182,7 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
@@ -10017,7 +10191,7 @@
         <v>45</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>45</v>
@@ -10025,7 +10199,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10048,13 +10222,13 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10105,7 +10279,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10123,7 +10297,7 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>45</v>
@@ -10140,7 +10314,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10166,16 +10340,16 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10200,11 +10374,11 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10222,7 +10396,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10237,19 +10411,19 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
@@ -10257,7 +10431,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10280,19 +10454,19 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10341,7 +10515,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10356,27 +10530,27 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10399,19 +10573,19 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10460,7 +10634,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10478,24 +10652,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10518,19 +10692,19 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10567,19 +10741,19 @@
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10594,19 +10768,19 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10614,7 +10788,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10640,10 +10814,10 @@
         <v>54</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10694,7 +10868,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10712,7 +10886,7 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>45</v>
@@ -10729,11 +10903,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10755,13 +10929,13 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10802,7 +10976,7 @@
         <v>100</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
@@ -10811,7 +10985,7 @@
         <v>101</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10829,7 +11003,7 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>45</v>
@@ -10846,7 +11020,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10872,16 +11046,16 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10894,7 +11068,7 @@
         <v>45</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>45</v>
@@ -10906,13 +11080,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10930,7 +11104,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10948,7 +11122,7 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>45</v>
@@ -10957,7 +11131,7 @@
         <v>45</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10965,7 +11139,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10991,13 +11165,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11011,7 +11185,7 @@
         <v>45</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>45</v>
@@ -11023,13 +11197,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -11047,7 +11221,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11065,7 +11239,7 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>45</v>
@@ -11074,7 +11248,7 @@
         <v>45</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>45</v>
@@ -11082,7 +11256,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11108,16 +11282,16 @@
         <v>54</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -11130,7 +11304,7 @@
         <v>45</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>45</v>
@@ -11166,7 +11340,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11184,7 +11358,7 @@
         <v>45</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>45</v>
@@ -11193,7 +11367,7 @@
         <v>45</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>45</v>
@@ -11201,7 +11375,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11227,10 +11401,10 @@
         <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11245,7 +11419,7 @@
         <v>45</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>45</v>
@@ -11281,7 +11455,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11296,10 +11470,10 @@
         <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>45</v>
@@ -11308,7 +11482,7 @@
         <v>45</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>45</v>
@@ -11316,11 +11490,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11342,10 +11516,10 @@
         <v>54</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11360,7 +11534,7 @@
         <v>45</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>45</v>
@@ -11396,7 +11570,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11411,10 +11585,10 @@
         <v>64</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>45</v>
@@ -11423,7 +11597,7 @@
         <v>45</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>45</v>
@@ -11431,11 +11605,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11457,13 +11631,13 @@
         <v>54</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11477,7 +11651,7 @@
         <v>45</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>45</v>
@@ -11513,7 +11687,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11531,7 +11705,7 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>45</v>
@@ -11540,7 +11714,7 @@
         <v>45</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>45</v>
@@ -11548,11 +11722,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11574,10 +11748,10 @@
         <v>54</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11604,13 +11778,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11628,7 +11802,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11643,10 +11817,10 @@
         <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>45</v>
@@ -11655,7 +11829,7 @@
         <v>45</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
@@ -11663,11 +11837,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11689,10 +11863,10 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11707,7 +11881,7 @@
         <v>45</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>45</v>
@@ -11743,7 +11917,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11758,10 +11932,10 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>45</v>
@@ -11770,7 +11944,7 @@
         <v>45</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
@@ -11778,7 +11952,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11804,13 +11978,13 @@
         <v>54</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11860,7 +12034,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11878,7 +12052,7 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>45</v>
@@ -11887,7 +12061,7 @@
         <v>45</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>45</v>
@@ -11895,7 +12069,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11918,17 +12092,17 @@
         <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11941,7 +12115,7 @@
         <v>45</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>45</v>
@@ -11977,7 +12151,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11992,10 +12166,10 @@
         <v>64</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>45</v>
@@ -12004,17 +12178,19 @@
         <v>45</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>45</v>
       </c>
@@ -12026,26 +12202,28 @@
         <v>52</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>193</v>
+        <v>424</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -12070,13 +12248,13 @@
         <v>45</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -12094,13 +12272,13 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -12109,19 +12287,19 @@
         <v>64</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>45</v>
@@ -12129,7 +12307,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12152,20 +12330,16 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>491</v>
+        <v>54</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>492</v>
+        <v>205</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12213,7 +12387,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>490</v>
+        <v>207</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12225,22 +12399,22 @@
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>496</v>
+        <v>208</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>497</v>
+        <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>45</v>
@@ -12248,7 +12422,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12256,7 +12430,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>44</v>
@@ -12271,20 +12445,16 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>499</v>
+        <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>500</v>
+        <v>98</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12320,19 +12490,19 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>498</v>
+        <v>213</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12344,44 +12514,46 @@
         <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>504</v>
+        <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>505</v>
+        <v>45</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>45</v>
@@ -12390,20 +12562,16 @@
         <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12451,7 +12619,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>506</v>
+        <v>213</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12463,16 +12631,16 @@
         <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>513</v>
+        <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>45</v>
@@ -12486,7 +12654,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12512,10 +12680,10 @@
         <v>54</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12566,7 +12734,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -12584,7 +12752,7 @@
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>45</v>
@@ -12601,18 +12769,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12627,14 +12795,12 @@
         <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12671,19 +12837,19 @@
         <v>45</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12701,7 +12867,7 @@
         <v>45</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>45</v>
@@ -12718,49 +12884,47 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>45</v>
@@ -12802,19 +12966,19 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>45</v>
@@ -12837,7 +13001,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12848,7 +13012,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>45</v>
@@ -12860,18 +13024,16 @@
         <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>524</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
@@ -12895,37 +13057,35 @@
         <v>45</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>526</v>
+        <v>45</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="AB92" s="2"/>
       <c r="AC92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>45</v>
@@ -12937,16 +13097,16 @@
         <v>45</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>527</v>
+        <v>95</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>45</v>
@@ -12954,9 +13114,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>45</v>
       </c>
@@ -12977,18 +13139,16 @@
         <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>532</v>
-      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
       </c>
@@ -12997,7 +13157,7 @@
         <v>45</v>
       </c>
       <c r="R93" t="s" s="2">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>45</v>
@@ -13036,7 +13196,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13054,16 +13214,16 @@
         <v>45</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>45</v>
@@ -13071,7 +13231,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>534</v>
+        <v>436</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13082,31 +13242,31 @@
         <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>535</v>
+        <v>437</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -13119,7 +13279,7 @@
         <v>45</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>45</v>
@@ -13131,13 +13291,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13155,13 +13315,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -13173,16 +13333,16 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>538</v>
+        <v>445</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>45</v>
@@ -13190,7 +13350,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>539</v>
+        <v>446</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13210,21 +13370,21 @@
         <v>45</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>390</v>
+        <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13236,7 +13396,7 @@
         <v>45</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>45</v>
@@ -13248,13 +13408,13 @@
         <v>45</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>45</v>
@@ -13272,7 +13432,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>539</v>
+        <v>453</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13290,16 +13450,16 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>45</v>
@@ -13307,7 +13467,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13327,20 +13487,22 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="N96" t="s" s="2">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13353,7 +13515,7 @@
         <v>45</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>45</v>
@@ -13365,13 +13527,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>548</v>
+        <v>45</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -13389,7 +13551,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>544</v>
+        <v>460</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13407,24 +13569,24 @@
         <v>45</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>549</v>
+        <v>461</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13435,30 +13597,28 @@
         <v>43</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>552</v>
+        <v>464</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -13470,7 +13630,7 @@
         <v>45</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>45</v>
@@ -13506,46 +13666,46 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>550</v>
+        <v>466</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>555</v>
+        <v>467</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>556</v>
+        <v>468</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>557</v>
+        <v>469</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>45</v>
+        <v>470</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13555,22 +13715,22 @@
         <v>52</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13585,7 +13745,7 @@
         <v>45</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>45</v>
@@ -13621,7 +13781,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13636,63 +13796,61 @@
         <v>64</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>560</v>
+        <v>475</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J99" t="s" s="2">
-        <v>507</v>
+        <v>54</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -13704,7 +13862,7 @@
         <v>45</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>45</v>
+        <v>482</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>45</v>
@@ -13740,13 +13898,13 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>561</v>
+        <v>483</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>45</v>
@@ -13755,31 +13913,31 @@
         <v>64</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>566</v>
+        <v>484</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>568</v>
+        <v>486</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>45</v>
+        <v>487</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13789,22 +13947,22 @@
         <v>52</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>174</v>
+        <v>489</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13831,13 +13989,13 @@
         <v>45</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -13855,7 +14013,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -13867,13 +14025,13 @@
         <v>45</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>176</v>
+        <v>493</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>45</v>
@@ -13882,48 +14040,46 @@
         <v>45</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>155</v>
+        <v>496</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>178</v>
+        <v>497</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -13936,7 +14092,7 @@
         <v>45</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>45</v>
@@ -13972,25 +14128,25 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>181</v>
+        <v>500</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>176</v>
+        <v>501</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>45</v>
@@ -13999,7 +14155,7 @@
         <v>45</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>45</v>
+        <v>502</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>45</v>
@@ -14007,43 +14163,41 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14091,25 +14245,25 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>95</v>
+        <v>508</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>45</v>
@@ -14118,7 +14272,7 @@
         <v>45</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>45</v>
+        <v>509</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>45</v>
@@ -14126,7 +14280,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14134,7 +14288,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>52</v>
@@ -14146,22 +14300,20 @@
         <v>45</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
@@ -14174,7 +14326,7 @@
         <v>45</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>45</v>
@@ -14186,11 +14338,13 @@
         <v>45</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="X103" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y103" t="s" s="2">
-        <v>576</v>
+        <v>45</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -14208,10 +14362,10 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>52</v>
@@ -14223,19 +14377,19 @@
         <v>64</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>571</v>
+        <v>352</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>577</v>
+        <v>344</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>579</v>
+        <v>516</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>45</v>
@@ -14243,7 +14397,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14266,19 +14420,17 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
@@ -14303,13 +14455,13 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>45</v>
+        <v>543</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
@@ -14327,7 +14479,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14345,16 +14497,16 @@
         <v>45</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>45</v>
@@ -14362,18 +14514,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>45</v>
@@ -14385,18 +14537,20 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>591</v>
+        <v>549</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -14444,13 +14598,13 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>45</v>
@@ -14462,16 +14616,16 @@
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>45</v>
@@ -14479,7 +14633,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14490,7 +14644,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -14499,22 +14653,22 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>228</v>
+        <v>556</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -14563,13 +14717,13 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -14581,16 +14735,16 @@
         <v>45</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>601</v>
+        <v>208</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>45</v>
+        <v>562</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>45</v>
@@ -14598,7 +14752,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14615,25 +14769,25 @@
         <v>45</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>604</v>
+        <v>566</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14682,7 +14836,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14694,16 +14848,16 @@
         <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>64</v>
+        <v>569</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>45</v>
@@ -14717,7 +14871,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14743,10 +14897,10 @@
         <v>54</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14797,7 +14951,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14815,7 +14969,7 @@
         <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>45</v>
@@ -14832,11 +14986,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14858,13 +15012,13 @@
         <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14914,7 +15068,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14932,7 +15086,7 @@
         <v>45</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>45</v>
@@ -14949,11 +15103,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14975,16 +15129,16 @@
         <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15033,7 +15187,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15068,7 +15222,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15076,10 +15230,10 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>45</v>
@@ -15088,21 +15242,21 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>612</v>
+        <v>225</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
@@ -15126,13 +15280,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>45</v>
+        <v>582</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>45</v>
+        <v>583</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -15150,13 +15304,13 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>45</v>
@@ -15168,16 +15322,16 @@
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>168</v>
+        <v>584</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>45</v>
@@ -15185,7 +15339,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15193,7 +15347,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>52</v>
@@ -15205,19 +15359,21 @@
         <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -15241,13 +15397,13 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>619</v>
+        <v>45</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>620</v>
+        <v>45</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -15265,10 +15421,10 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>52</v>
@@ -15283,23 +15439,2252 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AL112" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO112" t="s" s="2">
+      <c r="N118" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="X122" s="2"/>
+      <c r="Y122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO131" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO112">
+  <autoFilter ref="A1:AO131">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15309,7 +17694,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI130">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$132</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="683">
   <si>
     <t>Path</t>
   </si>
@@ -163,7 +163,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sara-1:If 'Continuous Exposure' is set to true, then there shall be no 'Last Date of Exposure' {extension.where(url='http://saraalert.org/StructureDefinition/continuous-exposure').first().valueBoolean implies Patient.extension.where(url='http://saraalert.org/StructureDefinition/last-date-of-exposure').first().valueDate.empty()}sara-2:If 'Continuous Exposure' and 'Isolation' are both set to false, then there shall be a 'Last Date of Exposure' {extension.where(url='http://saraalert.org/StructureDefinition/continuous-exposure').first().valueBoolean.not() and extension.where(url='http://saraalert.org/StructureDefinition/isolation').first().valueBoolean.not() implies Patient.extension.where(url='http://saraalert.org/StructureDefinition/last-date-of-exposure').first().valueDate.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -613,6 +613,19 @@
   </si>
   <si>
     <t>Represents any additional notes about the monitoree’s planned travel. This can include details about the nature of the trip, planned social interaction, additional destinations, etc.</t>
+  </si>
+  <si>
+    <t>continuous-exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/continuous-exposure}
+</t>
+  </si>
+  <si>
+    <t>Continuous Exposure</t>
+  </si>
+  <si>
+    <t>Indicates if a monitoree's exposure to one or more cases is ongoing. This type of exposure means there is no known 'Last Date of Exposure'</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -2290,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO131"/>
+  <dimension ref="A1:AO132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5737,32 +5750,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>188</v>
@@ -5770,12 +5785,8 @@
       <c r="L30" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5823,7 +5834,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5841,7 +5852,7 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>45</v>
@@ -5858,40 +5869,42 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5928,19 +5941,19 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5952,22 +5965,22 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5975,7 +5988,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5983,31 +5996,33 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -6043,46 +6058,46 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -6090,18 +6105,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -6113,17 +6128,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -6160,37 +6173,37 @@
         <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>45</v>
@@ -6207,43 +6220,41 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -6267,49 +6278,49 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>45</v>
@@ -6318,7 +6329,7 @@
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -6326,7 +6337,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6343,25 +6354,25 @@
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6386,13 +6397,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -6410,7 +6421,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6428,7 +6439,7 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>45</v>
@@ -6437,15 +6448,15 @@
         <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6453,13 +6464,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -6468,19 +6479,19 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6493,7 +6504,7 @@
         <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>45</v>
@@ -6505,13 +6516,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -6529,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6544,10 +6555,10 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>45</v>
@@ -6556,7 +6567,7 @@
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6564,7 +6575,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6587,18 +6598,20 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>45</v>
@@ -6646,7 +6659,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6661,10 +6674,10 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>45</v>
@@ -6673,15 +6686,15 @@
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6689,13 +6702,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
@@ -6704,15 +6717,17 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6725,7 +6740,7 @@
         <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>45</v>
@@ -6761,7 +6776,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6776,10 +6791,10 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>45</v>
@@ -6788,7 +6803,7 @@
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6796,7 +6811,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6819,17 +6834,15 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6878,7 +6891,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6896,7 +6909,7 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>45</v>
@@ -6905,19 +6918,17 @@
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6929,7 +6940,7 @@
         <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6938,20 +6949,18 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6999,13 +7008,13 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -7014,29 +7023,31 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>45</v>
       </c>
@@ -7048,25 +7059,29 @@
         <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -7114,34 +7129,34 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -7149,18 +7164,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -7172,17 +7187,15 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -7219,37 +7232,37 @@
         <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>45</v>
@@ -7266,43 +7279,41 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -7326,49 +7337,49 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>45</v>
@@ -7377,7 +7388,7 @@
         <v>45</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7385,7 +7396,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7402,25 +7413,25 @@
         <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7445,13 +7456,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7469,7 +7480,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7487,7 +7498,7 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>45</v>
@@ -7496,15 +7507,15 @@
         <v>45</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7512,13 +7523,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -7527,19 +7538,19 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7549,10 +7560,10 @@
         <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>45</v>
@@ -7564,13 +7575,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7588,7 +7599,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7603,10 +7614,10 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>45</v>
@@ -7615,7 +7626,7 @@
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7623,7 +7634,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7646,18 +7657,20 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7666,10 +7679,10 @@
         <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>45</v>
@@ -7705,7 +7718,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7720,10 +7733,10 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>45</v>
@@ -7732,15 +7745,15 @@
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7748,13 +7761,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7763,15 +7776,17 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7784,7 +7799,7 @@
         <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>45</v>
@@ -7820,7 +7835,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7835,10 +7850,10 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>45</v>
@@ -7847,7 +7862,7 @@
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7855,7 +7870,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7878,17 +7893,15 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7937,7 +7950,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7955,7 +7968,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>45</v>
@@ -7964,15 +7977,15 @@
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7986,35 +7999,31 @@
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P49" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>45</v>
       </c>
@@ -8058,7 +8067,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -8076,16 +8085,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -8093,7 +8102,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8101,118 +8110,120 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P50" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="Q50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8220,31 +8231,35 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -8292,34 +8307,34 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -8327,18 +8342,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -8350,17 +8365,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8397,37 +8410,37 @@
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
@@ -8444,43 +8457,41 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8504,49 +8515,49 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
@@ -8555,7 +8566,7 @@
         <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8563,7 +8574,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8580,25 +8591,25 @@
         <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8623,13 +8634,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8647,7 +8658,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8665,7 +8676,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>45</v>
@@ -8674,19 +8685,19 @@
         <v>45</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8696,7 +8707,7 @@
         <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8708,15 +8719,17 @@
         <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8764,7 +8777,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8773,16 +8786,16 @@
         <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>45</v>
@@ -8791,7 +8804,7 @@
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8799,18 +8812,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>53</v>
@@ -8825,13 +8838,13 @@
         <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8881,25 +8894,25 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>45</v>
@@ -8908,19 +8921,19 @@
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8930,7 +8943,7 @@
         <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>45</v>
@@ -8942,12 +8955,14 @@
         <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8996,7 +9011,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -9005,16 +9020,16 @@
         <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
@@ -9023,7 +9038,7 @@
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -9031,7 +9046,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9057,10 +9072,10 @@
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9111,7 +9126,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -9129,7 +9144,7 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -9138,7 +9153,7 @@
         <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -9146,7 +9161,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9157,7 +9172,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -9169,18 +9184,16 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -9228,13 +9241,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -9246,7 +9259,7 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>45</v>
@@ -9255,15 +9268,15 @@
         <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9274,10 +9287,10 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
@@ -9286,19 +9299,17 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9347,13 +9358,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -9362,27 +9373,27 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9393,28 +9404,32 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9462,34 +9477,34 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>45</v>
@@ -9497,18 +9512,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -9520,17 +9535,15 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9567,38 +9580,38 @@
         <v>45</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AC62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9612,25 +9625,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -9639,15 +9650,17 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>359</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9684,19 +9697,19 @@
         <v>45</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9714,7 +9727,7 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>45</v>
@@ -9731,15 +9744,17 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>52</v>
@@ -9751,16 +9766,16 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>363</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9787,13 +9802,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9811,25 +9826,25 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>45</v>
@@ -9838,7 +9853,7 @@
         <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9846,7 +9861,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9869,20 +9884,16 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9906,13 +9917,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9930,7 +9941,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9939,16 +9950,16 @@
         <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>45</v>
@@ -9957,7 +9968,7 @@
         <v>45</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9965,7 +9976,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9973,7 +9984,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>52</v>
@@ -9982,25 +9993,25 @@
         <v>53</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -10025,11 +10036,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -10047,7 +10060,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10062,10 +10075,10 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>45</v>
@@ -10074,15 +10087,15 @@
         <v>45</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10096,27 +10109,29 @@
         <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -10140,13 +10155,11 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -10164,7 +10177,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10179,10 +10192,10 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
@@ -10191,7 +10204,7 @@
         <v>45</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>45</v>
@@ -10199,7 +10212,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10222,15 +10235,17 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -10297,7 +10312,7 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>344</v>
+        <v>212</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>45</v>
@@ -10306,13 +10321,13 @@
         <v>45</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>397</v>
       </c>
@@ -10322,13 +10337,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>45</v>
@@ -10337,7 +10352,7 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>398</v>
@@ -10345,12 +10360,8 @@
       <c r="L69" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10374,11 +10385,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10396,7 +10409,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10411,19 +10424,19 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>117</v>
+        <v>348</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
@@ -10431,7 +10444,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10439,7 +10452,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>52</v>
@@ -10454,19 +10467,19 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>406</v>
+        <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10491,13 +10504,11 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10515,7 +10526,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10530,27 +10541,27 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10564,28 +10575,28 @@
         <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10634,7 +10645,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10649,27 +10660,27 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>45</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10680,31 +10691,31 @@
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10741,25 +10752,25 @@
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -10768,19 +10779,19 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>432</v>
+        <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10788,7 +10799,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10799,28 +10810,32 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>54</v>
+        <v>428</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10856,46 +10871,46 @@
         <v>45</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>208</v>
+        <v>435</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -10903,18 +10918,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10926,17 +10941,15 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10973,37 +10986,37 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>45</v>
@@ -11020,43 +11033,41 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>437</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>438</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -11068,7 +11079,7 @@
         <v>45</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>45</v>
@@ -11080,49 +11091,49 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>444</v>
+        <v>217</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>45</v>
@@ -11131,7 +11142,7 @@
         <v>45</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -11139,7 +11150,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11156,7 +11167,7 @@
         <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>53</v>
@@ -11165,15 +11176,17 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -11185,7 +11198,7 @@
         <v>45</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>45</v>
@@ -11197,13 +11210,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -11221,7 +11234,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11239,7 +11252,7 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>45</v>
@@ -11248,7 +11261,7 @@
         <v>45</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>45</v>
@@ -11256,7 +11269,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11279,20 +11292,18 @@
         <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11304,7 +11315,7 @@
         <v>45</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>45</v>
@@ -11316,13 +11327,13 @@
         <v>45</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>45</v>
@@ -11340,7 +11351,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11358,7 +11369,7 @@
         <v>45</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>45</v>
@@ -11367,15 +11378,15 @@
         <v>45</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11386,10 +11397,10 @@
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>45</v>
@@ -11401,13 +11412,17 @@
         <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11419,7 +11434,7 @@
         <v>45</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>45</v>
@@ -11455,13 +11470,13 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
@@ -11470,10 +11485,10 @@
         <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>45</v>
@@ -11482,7 +11497,7 @@
         <v>45</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>45</v>
@@ -11490,18 +11505,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>53</v>
@@ -11516,10 +11531,10 @@
         <v>54</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11534,7 +11549,7 @@
         <v>45</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>45</v>
@@ -11570,13 +11585,13 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
@@ -11585,10 +11600,10 @@
         <v>64</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>45</v>
@@ -11597,19 +11612,19 @@
         <v>45</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11619,7 +11634,7 @@
         <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>45</v>
@@ -11631,14 +11646,12 @@
         <v>54</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11651,7 +11664,7 @@
         <v>45</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>45</v>
@@ -11687,7 +11700,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11702,10 +11715,10 @@
         <v>64</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>45</v>
@@ -11714,19 +11727,19 @@
         <v>45</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11736,7 +11749,7 @@
         <v>52</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>45</v>
@@ -11748,12 +11761,14 @@
         <v>54</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11766,7 +11781,7 @@
         <v>45</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>45</v>
@@ -11778,13 +11793,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11802,7 +11817,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11817,10 +11832,10 @@
         <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>45</v>
@@ -11829,7 +11844,7 @@
         <v>45</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>45</v>
@@ -11837,11 +11852,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11863,10 +11878,10 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11881,7 +11896,7 @@
         <v>45</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>45</v>
@@ -11893,13 +11908,13 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>45</v>
+        <v>495</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11917,7 +11932,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11932,10 +11947,10 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>45</v>
@@ -11944,19 +11959,19 @@
         <v>45</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11966,7 +11981,7 @@
         <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>45</v>
@@ -11978,14 +11993,12 @@
         <v>54</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11998,7 +12011,7 @@
         <v>45</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>45</v>
@@ -12034,7 +12047,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12049,10 +12062,10 @@
         <v>64</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>45</v>
@@ -12061,15 +12074,15 @@
         <v>45</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12083,7 +12096,7 @@
         <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>45</v>
@@ -12092,18 +12105,18 @@
         <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -12115,7 +12128,7 @@
         <v>45</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>45</v>
@@ -12151,7 +12164,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12166,10 +12179,10 @@
         <v>64</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>344</v>
+        <v>512</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>45</v>
@@ -12178,7 +12191,7 @@
         <v>45</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>45</v>
@@ -12186,11 +12199,9 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>45</v>
       </c>
@@ -12211,19 +12222,17 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>424</v>
+        <v>257</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>425</v>
+        <v>515</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>428</v>
+        <v>517</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -12236,7 +12245,7 @@
         <v>45</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>45</v>
@@ -12272,13 +12281,13 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -12287,29 +12296,31 @@
         <v>64</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12321,25 +12332,29 @@
         <v>52</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>54</v>
+        <v>428</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12387,34 +12402,34 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>208</v>
+        <v>435</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>45</v>
@@ -12422,7 +12437,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12430,10 +12445,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12445,13 +12460,13 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12490,38 +12505,38 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AC87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12535,13 +12550,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12550,10 +12563,10 @@
         <v>52</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>45</v>
@@ -12562,13 +12575,13 @@
         <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>519</v>
+        <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>520</v>
+        <v>98</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>521</v>
+        <v>99</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12607,19 +12620,19 @@
         <v>45</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12652,23 +12665,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>45</v>
@@ -12677,13 +12692,13 @@
         <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>54</v>
+        <v>523</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>205</v>
+        <v>524</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>206</v>
+        <v>525</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12734,25 +12749,25 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>45</v>
@@ -12769,7 +12784,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12780,7 +12795,7 @@
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12792,13 +12807,13 @@
         <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12837,37 +12852,37 @@
         <v>45</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AB90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>45</v>
@@ -12884,7 +12899,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12892,10 +12907,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>45</v>
@@ -12907,24 +12922,22 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>525</v>
+        <v>98</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>45</v>
@@ -12954,37 +12967,37 @@
         <v>45</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>529</v>
+        <v>217</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>45</v>
@@ -13001,7 +13014,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13009,7 +13022,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>52</v>
@@ -13024,22 +13037,24 @@
         <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>45</v>
+        <v>532</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13069,20 +13084,22 @@
         <v>45</v>
       </c>
       <c r="AA92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AB92" s="2"/>
-      <c r="AC92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AF92" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>52</v>
@@ -13091,7 +13108,7 @@
         <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>45</v>
@@ -13114,11 +13131,9 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>45</v>
       </c>
@@ -13142,10 +13157,10 @@
         <v>54</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13157,46 +13172,44 @@
         <v>45</v>
       </c>
       <c r="R93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA93" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="S93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB93" s="2"/>
       <c r="AC93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>45</v>
+        <v>538</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13231,9 +13244,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="C94" t="s" s="2">
         <v>45</v>
       </c>
@@ -13248,26 +13263,22 @@
         <v>45</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -13276,10 +13287,10 @@
         <v>45</v>
       </c>
       <c r="R94" t="s" s="2">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>45</v>
@@ -13291,13 +13302,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13315,7 +13326,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>444</v>
+        <v>539</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13333,7 +13344,7 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>45</v>
@@ -13342,7 +13353,7 @@
         <v>45</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>45</v>
@@ -13350,7 +13361,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13367,7 +13378,7 @@
         <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>53</v>
@@ -13376,15 +13387,17 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13396,7 +13409,7 @@
         <v>45</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>45</v>
@@ -13408,13 +13421,13 @@
         <v>45</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>45</v>
@@ -13432,7 +13445,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13450,7 +13463,7 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>45</v>
@@ -13459,7 +13472,7 @@
         <v>45</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>45</v>
@@ -13467,7 +13480,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13490,20 +13503,18 @@
         <v>53</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
@@ -13515,7 +13526,7 @@
         <v>45</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>45</v>
@@ -13527,13 +13538,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -13551,7 +13562,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13569,7 +13580,7 @@
         <v>45</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>45</v>
@@ -13578,15 +13589,15 @@
         <v>45</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13597,10 +13608,10 @@
         <v>43</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>45</v>
@@ -13612,13 +13623,17 @@
         <v>54</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -13630,7 +13645,7 @@
         <v>45</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>45</v>
@@ -13666,13 +13681,13 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>45</v>
@@ -13681,10 +13696,10 @@
         <v>64</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>45</v>
@@ -13693,7 +13708,7 @@
         <v>45</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>45</v>
@@ -13701,18 +13716,18 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>53</v>
@@ -13727,10 +13742,10 @@
         <v>54</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13745,7 +13760,7 @@
         <v>45</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>45</v>
@@ -13781,13 +13796,13 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>45</v>
@@ -13796,10 +13811,10 @@
         <v>64</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>45</v>
@@ -13808,19 +13823,19 @@
         <v>45</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13830,7 +13845,7 @@
         <v>52</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>45</v>
@@ -13842,14 +13857,12 @@
         <v>54</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>45</v>
@@ -13862,7 +13875,7 @@
         <v>45</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>45</v>
@@ -13898,7 +13911,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -13913,10 +13926,10 @@
         <v>64</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>45</v>
@@ -13925,19 +13938,19 @@
         <v>45</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13947,7 +13960,7 @@
         <v>52</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>45</v>
@@ -13959,12 +13972,14 @@
         <v>54</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -13977,7 +13992,7 @@
         <v>45</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>45</v>
@@ -13989,13 +14004,13 @@
         <v>45</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -14013,7 +14028,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -14028,10 +14043,10 @@
         <v>64</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>45</v>
@@ -14040,7 +14055,7 @@
         <v>45</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>45</v>
@@ -14048,11 +14063,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14074,10 +14089,10 @@
         <v>54</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -14092,7 +14107,7 @@
         <v>45</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>45</v>
@@ -14104,13 +14119,13 @@
         <v>45</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>45</v>
+        <v>495</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>45</v>
@@ -14128,7 +14143,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14143,10 +14158,10 @@
         <v>64</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>45</v>
@@ -14155,19 +14170,19 @@
         <v>45</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14177,7 +14192,7 @@
         <v>52</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>45</v>
@@ -14189,14 +14204,12 @@
         <v>54</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -14209,7 +14222,7 @@
         <v>45</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>45</v>
@@ -14245,7 +14258,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14260,10 +14273,10 @@
         <v>64</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>45</v>
@@ -14272,15 +14285,15 @@
         <v>45</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14294,7 +14307,7 @@
         <v>52</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>45</v>
@@ -14303,18 +14316,18 @@
         <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -14326,7 +14339,7 @@
         <v>45</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>45</v>
@@ -14362,7 +14375,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -14377,10 +14390,10 @@
         <v>64</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>344</v>
+        <v>512</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>45</v>
@@ -14389,15 +14402,15 @@
         <v>45</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14411,26 +14424,26 @@
         <v>52</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
@@ -14443,7 +14456,7 @@
         <v>45</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>45</v>
@@ -14455,13 +14468,13 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>543</v>
+        <v>45</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
@@ -14479,7 +14492,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14494,19 +14507,19 @@
         <v>64</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>544</v>
+        <v>348</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>545</v>
+        <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>45</v>
@@ -14514,7 +14527,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14537,19 +14550,17 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>548</v>
+        <v>229</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14574,13 +14585,13 @@
         <v>45</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>45</v>
+        <v>547</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>45</v>
@@ -14598,7 +14609,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14616,16 +14627,16 @@
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>208</v>
+        <v>549</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>45</v>
@@ -14633,7 +14644,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14644,7 +14655,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -14656,19 +14667,19 @@
         <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -14717,13 +14728,13 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -14735,16 +14746,16 @@
         <v>45</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>45</v>
@@ -14752,7 +14763,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14775,19 +14786,19 @@
         <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14836,7 +14847,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14848,22 +14859,22 @@
         <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>569</v>
+        <v>64</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>45</v>
+        <v>566</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>45</v>
@@ -14871,7 +14882,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14882,7 +14893,7 @@
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>45</v>
@@ -14894,16 +14905,20 @@
         <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>54</v>
+        <v>568</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>205</v>
+        <v>569</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -14951,28 +14966,28 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>207</v>
+        <v>567</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>45</v>
+        <v>573</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>208</v>
+        <v>574</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>45</v>
@@ -14986,18 +15001,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>45</v>
@@ -15009,17 +15024,15 @@
         <v>45</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L109" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -15068,25 +15081,25 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>45</v>
@@ -15103,11 +15116,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>574</v>
+        <v>191</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15120,26 +15133,24 @@
         <v>45</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>575</v>
+        <v>214</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>576</v>
+        <v>215</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>45</v>
       </c>
@@ -15187,7 +15198,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15205,7 +15216,7 @@
         <v>45</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>45</v>
@@ -15222,11 +15233,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>45</v>
+        <v>578</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15239,13 +15250,13 @@
         <v>45</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>579</v>
@@ -15253,9 +15264,11 @@
       <c r="L111" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M111" s="2"/>
+      <c r="M111" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N111" t="s" s="2">
-        <v>581</v>
+        <v>195</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -15280,13 +15293,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>582</v>
+        <v>45</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>583</v>
+        <v>45</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -15304,7 +15317,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15316,22 +15329,22 @@
         <v>45</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>584</v>
+        <v>95</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>585</v>
+        <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>45</v>
@@ -15339,7 +15352,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15350,7 +15363,7 @@
         <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>45</v>
@@ -15362,17 +15375,17 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
@@ -15397,13 +15410,13 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>45</v>
+        <v>586</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>45</v>
+        <v>587</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -15421,13 +15434,13 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
@@ -15439,16 +15452,16 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>287</v>
+        <v>588</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>45</v>
@@ -15456,7 +15469,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15467,7 +15480,7 @@
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -15479,19 +15492,17 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15540,13 +15551,13 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -15558,16 +15569,16 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>45</v>
@@ -15575,7 +15586,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15586,7 +15597,7 @@
         <v>43</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>45</v>
@@ -15598,17 +15609,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>599</v>
+        <v>355</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15657,13 +15670,13 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>45</v>
@@ -15675,16 +15688,16 @@
         <v>45</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>45</v>
@@ -15692,7 +15705,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15715,10 +15728,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>72</v>
+        <v>428</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>398</v>
+        <v>601</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>602</v>
@@ -15750,13 +15763,13 @@
         <v>45</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>604</v>
+        <v>45</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>605</v>
+        <v>45</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>45</v>
@@ -15774,7 +15787,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15792,16 +15805,16 @@
         <v>45</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>117</v>
+        <v>435</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>45</v>
@@ -15809,7 +15822,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15832,17 +15845,17 @@
         <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>608</v>
+        <v>402</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>45</v>
@@ -15867,13 +15880,13 @@
         <v>45</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>45</v>
+        <v>608</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>45</v>
+        <v>609</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>45</v>
@@ -15891,7 +15904,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -15900,7 +15913,7 @@
         <v>52</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>611</v>
+        <v>45</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>64</v>
@@ -15909,16 +15922,16 @@
         <v>45</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>612</v>
+        <v>117</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>45</v>
@@ -15926,7 +15939,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15949,16 +15962,18 @@
         <v>45</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+      <c r="N117" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -16006,7 +16021,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16015,7 +16030,7 @@
         <v>52</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>45</v>
+        <v>615</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>64</v>
@@ -16024,22 +16039,22 @@
         <v>45</v>
       </c>
       <c r="AK117" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AL117" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO117" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>618</v>
       </c>
@@ -16052,10 +16067,10 @@
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>45</v>
@@ -16064,7 +16079,7 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>564</v>
+        <v>257</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>619</v>
@@ -16072,12 +16087,8 @@
       <c r="L118" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>622</v>
-      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -16131,7 +16142,7 @@
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
@@ -16140,13 +16151,13 @@
         <v>64</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>618</v>
+        <v>45</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>624</v>
+        <v>212</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>45</v>
@@ -16158,9 +16169,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16171,10 +16182,10 @@
         <v>43</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>45</v>
@@ -16183,16 +16194,20 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>54</v>
+        <v>568</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>205</v>
+        <v>623</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
@@ -16240,28 +16255,28 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>207</v>
+        <v>622</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>208</v>
+        <v>627</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>45</v>
+        <v>628</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>45</v>
@@ -16275,18 +16290,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
@@ -16298,17 +16313,15 @@
         <v>45</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L120" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16357,25 +16370,25 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>45</v>
@@ -16392,11 +16405,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>574</v>
+        <v>191</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16409,26 +16422,24 @@
         <v>45</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>575</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>576</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
@@ -16476,7 +16487,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16494,7 +16505,7 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>45</v>
@@ -16509,44 +16520,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>45</v>
+        <v>578</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H122" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H122" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I122" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>631</v>
+        <v>194</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>632</v>
+        <v>195</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16571,11 +16582,13 @@
         <v>45</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X122" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y122" t="s" s="2">
-        <v>633</v>
+        <v>45</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>45</v>
@@ -16593,42 +16606,42 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>628</v>
+        <v>45</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>634</v>
+        <v>95</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>635</v>
+        <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>636</v>
+        <v>45</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16636,13 +16649,13 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>45</v>
@@ -16651,19 +16664,19 @@
         <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -16688,13 +16701,11 @@
         <v>45</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>45</v>
+        <v>637</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>45</v>
@@ -16712,10 +16723,10 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>52</v>
@@ -16727,19 +16738,19 @@
         <v>64</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>45</v>
+        <v>632</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>45</v>
@@ -16747,18 +16758,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>45</v>
@@ -16770,18 +16781,20 @@
         <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>647</v>
+        <v>276</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -16829,13 +16842,13 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>45</v>
@@ -16847,16 +16860,16 @@
         <v>45</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>208</v>
+        <v>647</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>45</v>
@@ -16864,18 +16877,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>45</v>
+        <v>650</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>45</v>
@@ -16884,23 +16897,21 @@
         <v>45</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>260</v>
+        <v>651</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L125" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>657</v>
-      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>45</v>
       </c>
@@ -16948,13 +16959,13 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>45</v>
@@ -16966,16 +16977,16 @@
         <v>45</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>658</v>
+        <v>212</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>45</v>
+        <v>656</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>45</v>
@@ -16983,7 +16994,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16994,31 +17005,31 @@
         <v>43</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>564</v>
+        <v>264</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
@@ -17067,13 +17078,13 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>45</v>
@@ -17085,10 +17096,10 @@
         <v>45</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>208</v>
+        <v>662</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>45</v>
@@ -17102,7 +17113,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17113,28 +17124,32 @@
         <v>43</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>54</v>
+        <v>568</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>205</v>
+        <v>664</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
       </c>
@@ -17182,28 +17197,28 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>207</v>
+        <v>663</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>208</v>
+        <v>668</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>45</v>
@@ -17217,18 +17232,18 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>45</v>
@@ -17240,17 +17255,15 @@
         <v>45</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L128" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>45</v>
@@ -17299,25 +17312,25 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>45</v>
@@ -17334,11 +17347,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>574</v>
+        <v>191</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17351,26 +17364,24 @@
         <v>45</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>575</v>
+        <v>214</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>576</v>
+        <v>215</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>45</v>
       </c>
@@ -17418,7 +17429,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -17436,7 +17447,7 @@
         <v>45</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>45</v>
@@ -17453,41 +17464,43 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>45</v>
+        <v>578</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>669</v>
+        <v>97</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>670</v>
+        <v>579</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>671</v>
+        <v>580</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
       </c>
@@ -17535,34 +17548,34 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>668</v>
+        <v>581</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>673</v>
+        <v>45</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>45</v>
@@ -17570,7 +17583,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17593,15 +17606,17 @@
         <v>53</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>72</v>
+        <v>673</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>45</v>
@@ -17626,13 +17641,13 @@
         <v>45</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>676</v>
+        <v>45</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>677</v>
+        <v>45</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>45</v>
@@ -17650,7 +17665,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>52</v>
@@ -17668,23 +17683,138 @@
         <v>45</v>
       </c>
       <c r="AK131" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="AL131" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO131" t="s" s="2">
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO132" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO131">
+  <autoFilter ref="A1:AO132">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17694,7 +17824,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI131">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -2012,7 +2012,7 @@
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/simple-language</t>
+    <t>http://saraalert.org/ValueSet/SaraAlertLanguage</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -16701,7 +16701,7 @@
         <v>45</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$219</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8102" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8139" uniqueCount="852">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:24:04-04:00</t>
+    <t>2021-10-06T18:59:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -624,7 +624,7 @@
     <t>Additional Planned Travel End Date</t>
   </si>
   <si>
-    <t>Represents the date that the monitoree is planning to end their additional travel. This field is read-only.</t>
+    <t>Represents the date that the monitoree is planning to end their additional travel.</t>
   </si>
   <si>
     <t>additional-planned-travel-destination</t>
@@ -637,7 +637,7 @@
     <t>Additional Planned Travel Destination</t>
   </si>
   <si>
-    <t>Represents destination of the monitoree’s planned travel. This field is read-only.</t>
+    <t>Represents destination of the monitoree’s planned travel.</t>
   </si>
   <si>
     <t>additional-planned-travel-destination-state</t>
@@ -650,7 +650,7 @@
     <t>Additional Planned Travel Destination State</t>
   </si>
   <si>
-    <t>Represents destination state of the monitoree’s planned travel. This field is read-only.</t>
+    <t>Represents destination state of the monitoree’s planned travel.</t>
   </si>
   <si>
     <t>additional-planned-travel-destination-country</t>
@@ -663,7 +663,7 @@
     <t>Additional Planned Travel Destination Country</t>
   </si>
   <si>
-    <t>Represents destination country of the monitoree’s planned travel. This field is read-only.</t>
+    <t>Represents destination country of the monitoree’s planned travel.</t>
   </si>
   <si>
     <t>additional-planned-travel-port-of-departure</t>
@@ -676,7 +676,7 @@
     <t>Additional Planned Travel Port of Departure</t>
   </si>
   <si>
-    <t>Represents the airport, station, or docking point that the monitoree is planning to travel from. This field is read-only.</t>
+    <t>Represents the airport, station, or docking point that the monitoree is planning to travel from.</t>
   </si>
   <si>
     <t>additional-planned-travel-type</t>
@@ -689,7 +689,7 @@
     <t>Additional Planned Travel Type</t>
   </si>
   <si>
-    <t>Represents type of additional planned travel the monitoree has reported (options are: `Domestic` and `International`). This field is read-only.</t>
+    <t>Represents type of additional planned travel the monitoree has reported (options are: `Domestic` and `International`).</t>
   </si>
   <si>
     <t>port-of-origin</t>
@@ -715,7 +715,7 @@
     <t>Port of Entry into USA</t>
   </si>
   <si>
-    <t>Represents the U.S. airport, station, or docking point that the monitoree traveled to in order to enter the United States. This field is read-only.</t>
+    <t>Represents the U.S. airport, station, or docking point that the monitoree traveled to in order to enter the United States.</t>
   </si>
   <si>
     <t>date-of-departure</t>
@@ -962,7 +962,7 @@
     <t>Case Status</t>
   </si>
   <si>
-    <t>Represents if a monitoree meets a case definition (options are: `Confirmed`, `Probable`, `Suspect`, `Unknown`, and `Not a Case`). This field is read-only.</t>
+    <t>Represents if a monitoree meets a case definition (options are: `Confirmed`, `Probable`, `Suspect`, `Unknown`, and `Not a Case`).</t>
   </si>
   <si>
     <t>closed-at</t>
@@ -1001,7 +1001,7 @@
     <t>Sexual Orientation</t>
   </si>
   <si>
-    <t>Represents how the monitoree characterizes their attraction to others. This field is read-only.</t>
+    <t>Represents how the monitoree characterizes their attraction to others.</t>
   </si>
   <si>
     <t>head-of-household</t>
@@ -1108,7 +1108,7 @@
     <t>Exposure Risk Factors</t>
   </si>
   <si>
-    <t>Represents the exposure risk factors for the monitoree. This field is read-only.</t>
+    <t>Represents the exposure risk factors for the monitoree.</t>
   </si>
   <si>
     <t>source-of-report</t>
@@ -1121,7 +1121,7 @@
     <t>Source Of Report</t>
   </si>
   <si>
-    <t>Represents where initial information about the monitoree’s exposure or illness was obtained from. This field is read-only.</t>
+    <t>Represents where initial information about the monitoree’s exposure or illness was obtained from.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1694,6 +1694,19 @@
     <t>Represents the type of phone attached to the phone number. This field can be used to determine a monitoree’s ability to receive SMS Texted Weblink, Telephone call, or SMS Text-message during the selection of Preferred Reporting Method (options are: `Smartphone`, `Landline`, `Plain Cell`).</t>
   </si>
   <si>
+    <t>international-telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/international-telephone}
+</t>
+  </si>
+  <si>
+    <t>International Telephone</t>
+  </si>
+  <si>
+    <t>Indicates if a monitoree's telephone number is international. The extension only has meaning when used on the 'Patient.telecom' element. If this extension is not present the telecom is assumed not to be international.</t>
+  </si>
+  <si>
     <t>Patient.telecom.system</t>
   </si>
   <si>
@@ -2185,7 +2198,7 @@
     <t>Address Type</t>
   </si>
   <si>
-    <t>Indicates if a monitoree's address is within the USA, or outside of the USA (options are: `USA` and `Foreign`). The extension only has meaning when used on the 'Patient.address' element. If this extension is not present the address is assumed to be within the USA.</t>
+    <t>Indicates if a monitoree's address is within the USA, or outside of the USA (options are: `USA`, `Foreign`, `Monitored` and `ForeignMonitored`). The extension only has meaning when used on the 'Patient.address' element. If this extension is not present the address is assumed to be within the USA.</t>
   </si>
   <si>
     <t>Patient.address.extension.id</t>
@@ -2998,7 +3011,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO218"/>
+  <dimension ref="A1:AO219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16184,15 +16197,17 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>86</v>
@@ -16204,16 +16219,16 @@
         <v>79</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>106</v>
+        <v>528</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -16240,13 +16255,13 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>79</v>
@@ -16264,25 +16279,25 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>532</v>
+        <v>370</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>79</v>
@@ -16291,7 +16306,7 @@
         <v>79</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>79</v>
@@ -16299,7 +16314,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16322,20 +16337,16 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>79</v>
       </c>
@@ -16359,13 +16370,13 @@
         <v>79</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -16383,7 +16394,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -16392,7 +16403,7 @@
         <v>86</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>98</v>
@@ -16401,7 +16412,7 @@
         <v>517</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>79</v>
@@ -16410,7 +16421,7 @@
         <v>79</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>79</v>
@@ -16418,7 +16429,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16426,7 +16437,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>86</v>
@@ -16435,25 +16446,25 @@
         <v>87</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -16478,11 +16489,13 @@
         <v>79</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="X115" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y115" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>79</v>
@@ -16500,7 +16513,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -16518,7 +16531,7 @@
         <v>517</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>79</v>
@@ -16527,15 +16540,15 @@
         <v>79</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16549,27 +16562,29 @@
         <v>86</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>553</v>
+        <v>106</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>79</v>
       </c>
@@ -16593,13 +16608,11 @@
         <v>79</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="X116" s="2"/>
       <c r="Y116" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>79</v>
@@ -16617,7 +16630,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -16632,10 +16645,10 @@
         <v>98</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>365</v>
+        <v>465</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>79</v>
@@ -16644,7 +16657,7 @@
         <v>79</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>365</v>
+        <v>555</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>79</v>
@@ -16652,7 +16665,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16675,15 +16688,17 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>410</v>
+        <v>557</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16750,7 +16765,7 @@
         <v>79</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>509</v>
+        <v>365</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>79</v>
@@ -16759,13 +16774,13 @@
         <v>79</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>562</v>
       </c>
@@ -16775,13 +16790,13 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>79</v>
@@ -16790,7 +16805,7 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>106</v>
+        <v>410</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>563</v>
@@ -16798,12 +16813,8 @@
       <c r="L118" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>79</v>
       </c>
@@ -16827,11 +16838,13 @@
         <v>79</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="X118" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y118" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
@@ -16849,7 +16862,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16864,19 +16877,19 @@
         <v>98</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>151</v>
+        <v>509</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>569</v>
+        <v>129</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -16884,7 +16897,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16892,7 +16905,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>86</v>
@@ -16907,19 +16920,19 @@
         <v>87</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>571</v>
+        <v>106</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16944,13 +16957,11 @@
         <v>79</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="X119" s="2"/>
       <c r="Y119" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>79</v>
@@ -16968,7 +16979,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16983,27 +16994,27 @@
         <v>98</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>576</v>
+        <v>151</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>579</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17017,28 +17028,28 @@
         <v>86</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -17087,7 +17098,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -17102,27 +17113,27 @@
         <v>98</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>365</v>
+        <v>581</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17133,31 +17144,31 @@
         <v>77</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -17194,25 +17205,25 @@
         <v>79</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>79</v>
@@ -17221,19 +17232,19 @@
         <v>98</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>597</v>
+        <v>365</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>79</v>
@@ -17241,7 +17252,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17252,28 +17263,32 @@
         <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>88</v>
+        <v>593</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
       </c>
@@ -17309,46 +17324,46 @@
         <v>79</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>364</v>
+        <v>592</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>79</v>
@@ -17356,18 +17371,18 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>79</v>
@@ -17379,17 +17394,15 @@
         <v>79</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>79</v>
@@ -17426,31 +17439,31 @@
         <v>79</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>79</v>
@@ -17473,43 +17486,41 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>602</v>
+        <v>367</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>603</v>
+        <v>368</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>79</v>
       </c>
@@ -17521,7 +17532,7 @@
         <v>79</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>79</v>
@@ -17533,49 +17544,49 @@
         <v>79</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA124" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>609</v>
+        <v>370</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>465</v>
+        <v>365</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>79</v>
@@ -17584,7 +17595,7 @@
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -17592,7 +17603,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17609,7 +17620,7 @@
         <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>87</v>
@@ -17618,15 +17629,17 @@
         <v>106</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>79</v>
       </c>
@@ -17638,7 +17651,7 @@
         <v>79</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>79</v>
@@ -17653,10 +17666,10 @@
         <v>376</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>79</v>
@@ -17674,7 +17687,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17701,7 +17714,7 @@
         <v>79</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
@@ -17709,7 +17722,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17732,20 +17745,18 @@
         <v>87</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>79</v>
       </c>
@@ -17757,7 +17768,7 @@
         <v>79</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>79</v>
@@ -17769,13 +17780,13 @@
         <v>79</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>79</v>
@@ -17793,7 +17804,7 @@
         <v>79</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17811,7 +17822,7 @@
         <v>79</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>79</v>
@@ -17820,15 +17831,15 @@
         <v>79</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17839,10 +17850,10 @@
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>79</v>
@@ -17854,13 +17865,17 @@
         <v>88</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>79</v>
       </c>
@@ -17872,7 +17887,7 @@
         <v>79</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>79</v>
@@ -17908,13 +17923,13 @@
         <v>79</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>79</v>
@@ -17923,10 +17938,10 @@
         <v>98</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>632</v>
+        <v>473</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>79</v>
@@ -17935,7 +17950,7 @@
         <v>79</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>79</v>
@@ -17943,18 +17958,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>87</v>
@@ -17969,10 +17984,10 @@
         <v>88</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17987,7 +18002,7 @@
         <v>79</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>79</v>
@@ -18023,13 +18038,13 @@
         <v>79</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>79</v>
@@ -18041,7 +18056,7 @@
         <v>517</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>79</v>
@@ -18050,19 +18065,19 @@
         <v>79</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -18072,7 +18087,7 @@
         <v>86</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>79</v>
@@ -18084,14 +18099,12 @@
         <v>88</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>79</v>
@@ -18104,7 +18117,7 @@
         <v>79</v>
       </c>
       <c r="S129" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>79</v>
@@ -18140,7 +18153,7 @@
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -18155,10 +18168,10 @@
         <v>98</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>79</v>
@@ -18167,19 +18180,19 @@
         <v>79</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -18189,7 +18202,7 @@
         <v>86</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>79</v>
@@ -18201,12 +18214,14 @@
         <v>88</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>79</v>
@@ -18219,7 +18234,7 @@
         <v>79</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>79</v>
@@ -18231,13 +18246,13 @@
         <v>79</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>79</v>
@@ -18255,7 +18270,7 @@
         <v>79</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -18270,10 +18285,10 @@
         <v>98</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>79</v>
@@ -18282,7 +18297,7 @@
         <v>79</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>79</v>
@@ -18290,11 +18305,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -18316,10 +18331,10 @@
         <v>88</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -18334,7 +18349,7 @@
         <v>79</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>79</v>
@@ -18346,13 +18361,13 @@
         <v>79</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>79</v>
@@ -18370,7 +18385,7 @@
         <v>79</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -18388,7 +18403,7 @@
         <v>517</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>79</v>
@@ -18397,19 +18412,19 @@
         <v>79</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18419,7 +18434,7 @@
         <v>86</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>79</v>
@@ -18431,14 +18446,12 @@
         <v>88</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>79</v>
@@ -18451,7 +18464,7 @@
         <v>79</v>
       </c>
       <c r="S132" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="T132" t="s" s="2">
         <v>79</v>
@@ -18487,7 +18500,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -18502,10 +18515,10 @@
         <v>98</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>79</v>
@@ -18514,15 +18527,15 @@
         <v>79</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18536,7 +18549,7 @@
         <v>86</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>79</v>
@@ -18545,18 +18558,18 @@
         <v>87</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>79</v>
       </c>
@@ -18568,7 +18581,7 @@
         <v>79</v>
       </c>
       <c r="S133" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="T133" t="s" s="2">
         <v>79</v>
@@ -18604,7 +18617,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -18619,10 +18632,10 @@
         <v>98</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>79</v>
@@ -18631,7 +18644,7 @@
         <v>79</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>79</v>
@@ -18639,11 +18652,9 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>682</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
         <v>79</v>
       </c>
@@ -18664,19 +18675,17 @@
         <v>87</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>589</v>
+        <v>410</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>79</v>
@@ -18689,7 +18698,7 @@
         <v>79</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>79</v>
+        <v>683</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>79</v>
@@ -18725,13 +18734,13 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>588</v>
+        <v>684</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>79</v>
@@ -18740,29 +18749,31 @@
         <v>98</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>596</v>
+        <v>509</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>598</v>
+        <v>685</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B135" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>686</v>
+      </c>
       <c r="C135" t="s" s="2">
         <v>79</v>
       </c>
@@ -18774,25 +18785,29 @@
         <v>86</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>88</v>
+        <v>593</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
       </c>
@@ -18840,34 +18855,34 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>364</v>
+        <v>592</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
@@ -18875,7 +18890,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18883,10 +18898,10 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>79</v>
@@ -18898,13 +18913,13 @@
         <v>79</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -18943,37 +18958,37 @@
         <v>79</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>79</v>
@@ -18988,13 +19003,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>79</v>
       </c>
@@ -19003,10 +19016,10 @@
         <v>86</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>79</v>
@@ -19015,13 +19028,13 @@
         <v>79</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>684</v>
+        <v>131</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>685</v>
+        <v>132</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>686</v>
+        <v>133</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -19060,16 +19073,16 @@
         <v>79</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>370</v>
@@ -19105,23 +19118,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>79</v>
@@ -19130,13 +19145,13 @@
         <v>79</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>88</v>
+        <v>688</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>362</v>
+        <v>689</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>363</v>
+        <v>690</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -19187,25 +19202,25 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>79</v>
@@ -19222,7 +19237,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19233,7 +19248,7 @@
         <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>79</v>
@@ -19245,13 +19260,13 @@
         <v>79</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -19290,37 +19305,37 @@
         <v>79</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>79</v>
@@ -19337,7 +19352,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19345,10 +19360,10 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>79</v>
@@ -19360,24 +19375,22 @@
         <v>79</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>690</v>
+        <v>132</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
-        <v>693</v>
+        <v>79</v>
       </c>
       <c r="R140" t="s" s="2">
         <v>79</v>
@@ -19407,37 +19420,37 @@
         <v>79</v>
       </c>
       <c r="AA140" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>694</v>
+        <v>370</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>79</v>
@@ -19454,7 +19467,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19462,7 +19475,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>86</v>
@@ -19477,22 +19490,24 @@
         <v>79</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L141" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
-        <v>79</v>
+        <v>697</v>
       </c>
       <c r="R141" t="s" s="2">
         <v>79</v>
@@ -19522,20 +19537,22 @@
         <v>79</v>
       </c>
       <c r="AA141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE141" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AB141" s="2"/>
-      <c r="AC141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>700</v>
-      </c>
       <c r="AF141" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -19544,7 +19561,7 @@
         <v>79</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>79</v>
@@ -19567,11 +19584,9 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
         <v>79</v>
       </c>
@@ -19595,10 +19610,10 @@
         <v>88</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -19610,46 +19625,44 @@
         <v>79</v>
       </c>
       <c r="R142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA142" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="S142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AB142" s="2"/>
       <c r="AC142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>79</v>
+        <v>703</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
@@ -19684,9 +19697,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
       </c>
@@ -19701,26 +19716,22 @@
         <v>79</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>79</v>
       </c>
@@ -19729,10 +19740,10 @@
         <v>79</v>
       </c>
       <c r="R143" t="s" s="2">
-        <v>79</v>
+        <v>706</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>79</v>
@@ -19744,13 +19755,13 @@
         <v>79</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>79</v>
@@ -19768,7 +19779,7 @@
         <v>79</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>609</v>
+        <v>704</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
@@ -19786,7 +19797,7 @@
         <v>79</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>79</v>
@@ -19795,7 +19806,7 @@
         <v>79</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -19803,7 +19814,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19820,7 +19831,7 @@
         <v>79</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>87</v>
@@ -19829,15 +19840,17 @@
         <v>106</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>79</v>
       </c>
@@ -19849,7 +19862,7 @@
         <v>79</v>
       </c>
       <c r="S144" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>79</v>
@@ -19864,10 +19877,10 @@
         <v>376</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>79</v>
@@ -19885,7 +19898,7 @@
         <v>79</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
@@ -19912,7 +19925,7 @@
         <v>79</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>79</v>
@@ -19920,7 +19933,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19943,20 +19956,18 @@
         <v>87</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>79</v>
       </c>
@@ -19968,7 +19979,7 @@
         <v>79</v>
       </c>
       <c r="S145" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="T145" t="s" s="2">
         <v>79</v>
@@ -19980,13 +19991,13 @@
         <v>79</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>79</v>
@@ -20004,7 +20015,7 @@
         <v>79</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -20022,7 +20033,7 @@
         <v>79</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>79</v>
@@ -20031,15 +20042,15 @@
         <v>79</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20050,10 +20061,10 @@
         <v>77</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>79</v>
@@ -20065,13 +20076,17 @@
         <v>88</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>79</v>
       </c>
@@ -20083,7 +20098,7 @@
         <v>79</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>79</v>
@@ -20119,13 +20134,13 @@
         <v>79</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>79</v>
@@ -20134,10 +20149,10 @@
         <v>98</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>632</v>
+        <v>473</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>79</v>
@@ -20146,7 +20161,7 @@
         <v>79</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
@@ -20154,18 +20169,18 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>87</v>
@@ -20180,10 +20195,10 @@
         <v>88</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -20198,7 +20213,7 @@
         <v>79</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>79</v>
@@ -20234,13 +20249,13 @@
         <v>79</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>79</v>
@@ -20252,7 +20267,7 @@
         <v>517</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>79</v>
@@ -20261,19 +20276,19 @@
         <v>79</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20283,7 +20298,7 @@
         <v>86</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>79</v>
@@ -20295,14 +20310,12 @@
         <v>88</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>79</v>
@@ -20315,7 +20328,7 @@
         <v>79</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>79</v>
@@ -20351,7 +20364,7 @@
         <v>79</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -20366,10 +20379,10 @@
         <v>98</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>79</v>
@@ -20378,19 +20391,19 @@
         <v>79</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20400,7 +20413,7 @@
         <v>86</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>79</v>
@@ -20412,12 +20425,14 @@
         <v>88</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>79</v>
@@ -20430,7 +20445,7 @@
         <v>79</v>
       </c>
       <c r="S149" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>79</v>
@@ -20442,13 +20457,13 @@
         <v>79</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>79</v>
@@ -20466,7 +20481,7 @@
         <v>79</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -20481,10 +20496,10 @@
         <v>98</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>79</v>
@@ -20493,7 +20508,7 @@
         <v>79</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>79</v>
@@ -20501,11 +20516,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20527,10 +20542,10 @@
         <v>88</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -20545,7 +20560,7 @@
         <v>79</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>79</v>
@@ -20557,13 +20572,13 @@
         <v>79</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>79</v>
@@ -20581,7 +20596,7 @@
         <v>79</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -20599,7 +20614,7 @@
         <v>517</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>79</v>
@@ -20608,19 +20623,19 @@
         <v>79</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20630,7 +20645,7 @@
         <v>86</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>79</v>
@@ -20642,14 +20657,12 @@
         <v>88</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>79</v>
@@ -20662,7 +20675,7 @@
         <v>79</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>79</v>
@@ -20698,7 +20711,7 @@
         <v>79</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
@@ -20713,10 +20726,10 @@
         <v>98</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>79</v>
@@ -20725,15 +20738,15 @@
         <v>79</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20747,7 +20760,7 @@
         <v>86</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>79</v>
@@ -20756,18 +20769,18 @@
         <v>87</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M152" s="2"/>
-      <c r="N152" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>79</v>
       </c>
@@ -20779,7 +20792,7 @@
         <v>79</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>79</v>
@@ -20815,7 +20828,7 @@
         <v>79</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
@@ -20830,10 +20843,10 @@
         <v>98</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>79</v>
@@ -20842,7 +20855,7 @@
         <v>79</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>79</v>
@@ -20850,11 +20863,9 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
         <v>79</v>
       </c>
@@ -20875,19 +20886,17 @@
         <v>87</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>589</v>
+        <v>410</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>79</v>
@@ -20900,7 +20909,7 @@
         <v>79</v>
       </c>
       <c r="S153" t="s" s="2">
-        <v>79</v>
+        <v>683</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>79</v>
@@ -20936,13 +20945,13 @@
         <v>79</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>588</v>
+        <v>684</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>79</v>
@@ -20951,29 +20960,31 @@
         <v>98</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>596</v>
+        <v>509</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>598</v>
+        <v>685</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="C154" t="s" s="2">
         <v>79</v>
       </c>
@@ -20985,25 +20996,29 @@
         <v>86</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>88</v>
+        <v>593</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>79</v>
       </c>
@@ -21051,34 +21066,34 @@
         <v>79</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>364</v>
+        <v>592</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>79</v>
@@ -21086,7 +21101,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21094,10 +21109,10 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>79</v>
@@ -21109,13 +21124,13 @@
         <v>79</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -21154,37 +21169,37 @@
         <v>79</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB155" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC155" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>79</v>
@@ -21199,13 +21214,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
         <v>79</v>
       </c>
@@ -21214,10 +21227,10 @@
         <v>86</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>79</v>
@@ -21226,13 +21239,13 @@
         <v>79</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>684</v>
+        <v>131</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>685</v>
+        <v>132</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>686</v>
+        <v>133</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -21271,16 +21284,16 @@
         <v>79</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE156" t="s" s="2">
         <v>370</v>
@@ -21316,23 +21329,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B157" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F157" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>79</v>
@@ -21341,13 +21356,13 @@
         <v>79</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>88</v>
+        <v>688</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>362</v>
+        <v>689</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>363</v>
+        <v>690</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -21398,25 +21413,25 @@
         <v>79</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>79</v>
@@ -21433,7 +21448,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21444,7 +21459,7 @@
         <v>77</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>79</v>
@@ -21456,13 +21471,13 @@
         <v>79</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -21501,37 +21516,37 @@
         <v>79</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC158" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>79</v>
@@ -21548,7 +21563,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21556,10 +21571,10 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>79</v>
@@ -21571,24 +21586,22 @@
         <v>79</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>690</v>
+        <v>132</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
-        <v>693</v>
+        <v>79</v>
       </c>
       <c r="R159" t="s" s="2">
         <v>79</v>
@@ -21618,37 +21631,37 @@
         <v>79</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD159" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>694</v>
+        <v>370</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>79</v>
@@ -21665,7 +21678,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21673,7 +21686,7 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F160" t="s" s="2">
         <v>86</v>
@@ -21688,22 +21701,24 @@
         <v>79</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L160" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
-        <v>79</v>
+        <v>697</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>79</v>
@@ -21733,20 +21748,22 @@
         <v>79</v>
       </c>
       <c r="AA160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE160" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AB160" s="2"/>
-      <c r="AC160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>700</v>
-      </c>
       <c r="AF160" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>86</v>
@@ -21755,7 +21772,7 @@
         <v>79</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>79</v>
@@ -21778,11 +21795,9 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
         <v>79</v>
       </c>
@@ -21806,10 +21821,10 @@
         <v>88</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -21821,46 +21836,44 @@
         <v>79</v>
       </c>
       <c r="R161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AB161" s="2"/>
+      <c r="AC161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AE161" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -21895,9 +21908,11 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B162" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="C162" t="s" s="2">
         <v>79</v>
       </c>
@@ -21912,26 +21927,22 @@
         <v>79</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>79</v>
       </c>
@@ -21940,10 +21951,10 @@
         <v>79</v>
       </c>
       <c r="R162" t="s" s="2">
-        <v>79</v>
+        <v>708</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>79</v>
@@ -21955,13 +21966,13 @@
         <v>79</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>79</v>
@@ -21979,7 +21990,7 @@
         <v>79</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>609</v>
+        <v>704</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -21997,7 +22008,7 @@
         <v>79</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>79</v>
@@ -22006,7 +22017,7 @@
         <v>79</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>79</v>
@@ -22014,7 +22025,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22031,7 +22042,7 @@
         <v>79</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>87</v>
@@ -22040,15 +22051,17 @@
         <v>106</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N163" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
       </c>
@@ -22060,7 +22073,7 @@
         <v>79</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>79</v>
@@ -22075,10 +22088,10 @@
         <v>376</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>79</v>
@@ -22096,7 +22109,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -22123,7 +22136,7 @@
         <v>79</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>79</v>
@@ -22131,7 +22144,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22154,20 +22167,18 @@
         <v>87</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>79</v>
       </c>
@@ -22179,7 +22190,7 @@
         <v>79</v>
       </c>
       <c r="S164" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>79</v>
@@ -22191,13 +22202,13 @@
         <v>79</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>79</v>
@@ -22215,7 +22226,7 @@
         <v>79</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -22233,7 +22244,7 @@
         <v>79</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>79</v>
@@ -22242,15 +22253,15 @@
         <v>79</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22261,10 +22272,10 @@
         <v>77</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>79</v>
@@ -22276,13 +22287,17 @@
         <v>88</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
       </c>
@@ -22294,7 +22309,7 @@
         <v>79</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>79</v>
@@ -22330,13 +22345,13 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>79</v>
@@ -22345,10 +22360,10 @@
         <v>98</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>632</v>
+        <v>473</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>79</v>
@@ -22357,7 +22372,7 @@
         <v>79</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>79</v>
@@ -22365,18 +22380,18 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>87</v>
@@ -22391,10 +22406,10 @@
         <v>88</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -22409,7 +22424,7 @@
         <v>79</v>
       </c>
       <c r="S166" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>79</v>
@@ -22445,13 +22460,13 @@
         <v>79</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>79</v>
@@ -22463,7 +22478,7 @@
         <v>517</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>79</v>
@@ -22472,19 +22487,19 @@
         <v>79</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22494,7 +22509,7 @@
         <v>86</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>79</v>
@@ -22506,14 +22521,12 @@
         <v>88</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>79</v>
@@ -22526,7 +22539,7 @@
         <v>79</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>79</v>
@@ -22562,7 +22575,7 @@
         <v>79</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22577,10 +22590,10 @@
         <v>98</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>79</v>
@@ -22589,19 +22602,19 @@
         <v>79</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22611,7 +22624,7 @@
         <v>86</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>79</v>
@@ -22623,12 +22636,14 @@
         <v>88</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>79</v>
@@ -22641,7 +22656,7 @@
         <v>79</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>79</v>
@@ -22653,13 +22668,13 @@
         <v>79</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>79</v>
@@ -22677,7 +22692,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22692,10 +22707,10 @@
         <v>98</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>79</v>
@@ -22704,7 +22719,7 @@
         <v>79</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>79</v>
@@ -22712,11 +22727,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22738,10 +22753,10 @@
         <v>88</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -22756,7 +22771,7 @@
         <v>79</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>79</v>
@@ -22768,13 +22783,13 @@
         <v>79</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>79</v>
@@ -22792,7 +22807,7 @@
         <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22810,7 +22825,7 @@
         <v>517</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>79</v>
@@ -22819,19 +22834,19 @@
         <v>79</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22841,7 +22856,7 @@
         <v>86</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H170" t="s" s="2">
         <v>79</v>
@@ -22853,14 +22868,12 @@
         <v>88</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22873,7 +22886,7 @@
         <v>79</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>79</v>
@@ -22909,7 +22922,7 @@
         <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22924,10 +22937,10 @@
         <v>98</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>79</v>
@@ -22936,15 +22949,15 @@
         <v>79</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22958,7 +22971,7 @@
         <v>86</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>79</v>
@@ -22967,18 +22980,18 @@
         <v>87</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M171" s="2"/>
-      <c r="N171" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>79</v>
       </c>
@@ -22990,7 +23003,7 @@
         <v>79</v>
       </c>
       <c r="S171" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="T171" t="s" s="2">
         <v>79</v>
@@ -23026,7 +23039,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -23041,10 +23054,10 @@
         <v>98</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>79</v>
@@ -23053,7 +23066,7 @@
         <v>79</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>79</v>
@@ -23061,11 +23074,9 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
         <v>79</v>
       </c>
@@ -23086,19 +23097,17 @@
         <v>87</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>589</v>
+        <v>410</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>79</v>
@@ -23111,7 +23120,7 @@
         <v>79</v>
       </c>
       <c r="S172" t="s" s="2">
-        <v>79</v>
+        <v>683</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>79</v>
@@ -23147,13 +23156,13 @@
         <v>79</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>588</v>
+        <v>684</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>79</v>
@@ -23162,29 +23171,31 @@
         <v>98</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>596</v>
+        <v>509</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>598</v>
+        <v>685</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B173" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="C173" t="s" s="2">
         <v>79</v>
       </c>
@@ -23196,25 +23207,29 @@
         <v>86</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>88</v>
+        <v>593</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O173" t="s" s="2">
         <v>79</v>
       </c>
@@ -23262,34 +23277,34 @@
         <v>79</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>364</v>
+        <v>592</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>79</v>
@@ -23297,7 +23312,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23305,10 +23320,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>79</v>
@@ -23320,13 +23335,13 @@
         <v>79</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -23365,37 +23380,37 @@
         <v>79</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>79</v>
@@ -23410,13 +23425,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
         <v>79</v>
       </c>
@@ -23425,10 +23438,10 @@
         <v>86</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>79</v>
@@ -23437,13 +23450,13 @@
         <v>79</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>684</v>
+        <v>131</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>685</v>
+        <v>132</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>686</v>
+        <v>133</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -23482,16 +23495,16 @@
         <v>79</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE175" t="s" s="2">
         <v>370</v>
@@ -23527,23 +23540,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B176" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F176" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>79</v>
@@ -23552,13 +23567,13 @@
         <v>79</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>88</v>
+        <v>688</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>362</v>
+        <v>689</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>363</v>
+        <v>690</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -23609,25 +23624,25 @@
         <v>79</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>79</v>
@@ -23644,7 +23659,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23655,7 +23670,7 @@
         <v>77</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>79</v>
@@ -23667,13 +23682,13 @@
         <v>79</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -23712,37 +23727,37 @@
         <v>79</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB177" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AC177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD177" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>79</v>
@@ -23759,7 +23774,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23767,10 +23782,10 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>79</v>
@@ -23782,24 +23797,22 @@
         <v>79</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>690</v>
+        <v>132</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
-        <v>693</v>
+        <v>79</v>
       </c>
       <c r="R178" t="s" s="2">
         <v>79</v>
@@ -23829,37 +23842,37 @@
         <v>79</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB178" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AC178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>694</v>
+        <v>370</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>79</v>
@@ -23876,7 +23889,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23884,7 +23897,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>86</v>
@@ -23899,22 +23912,24 @@
         <v>79</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L179" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
-        <v>79</v>
+        <v>697</v>
       </c>
       <c r="R179" t="s" s="2">
         <v>79</v>
@@ -23944,20 +23959,22 @@
         <v>79</v>
       </c>
       <c r="AA179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AB179" s="2"/>
-      <c r="AC179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>700</v>
-      </c>
       <c r="AF179" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>86</v>
@@ -23966,7 +23983,7 @@
         <v>79</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>79</v>
@@ -23989,11 +24006,9 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
         <v>79</v>
       </c>
@@ -24017,10 +24032,10 @@
         <v>88</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -24032,7 +24047,7 @@
         <v>79</v>
       </c>
       <c r="R180" t="s" s="2">
-        <v>706</v>
+        <v>79</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>79</v>
@@ -24059,19 +24074,17 @@
         <v>79</v>
       </c>
       <c r="AA180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="AB180" s="2"/>
       <c r="AC180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD180" t="s" s="2">
-        <v>79</v>
+        <v>703</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>77</v>
@@ -24106,9 +24119,11 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B181" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="C181" t="s" s="2">
         <v>79</v>
       </c>
@@ -24123,26 +24138,22 @@
         <v>79</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>79</v>
       </c>
@@ -24151,10 +24162,10 @@
         <v>79</v>
       </c>
       <c r="R181" t="s" s="2">
-        <v>79</v>
+        <v>710</v>
       </c>
       <c r="S181" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="T181" t="s" s="2">
         <v>79</v>
@@ -24166,13 +24177,13 @@
         <v>79</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>79</v>
@@ -24190,7 +24201,7 @@
         <v>79</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>609</v>
+        <v>704</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>77</v>
@@ -24208,7 +24219,7 @@
         <v>79</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>79</v>
@@ -24217,7 +24228,7 @@
         <v>79</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>79</v>
@@ -24225,7 +24236,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24242,7 +24253,7 @@
         <v>79</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>87</v>
@@ -24251,15 +24262,17 @@
         <v>106</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N182" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O182" t="s" s="2">
         <v>79</v>
       </c>
@@ -24271,7 +24284,7 @@
         <v>79</v>
       </c>
       <c r="S182" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="T182" t="s" s="2">
         <v>79</v>
@@ -24286,10 +24299,10 @@
         <v>376</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>79</v>
@@ -24307,7 +24320,7 @@
         <v>79</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>77</v>
@@ -24334,7 +24347,7 @@
         <v>79</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>79</v>
@@ -24342,7 +24355,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24365,20 +24378,18 @@
         <v>87</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>79</v>
       </c>
@@ -24390,7 +24401,7 @@
         <v>79</v>
       </c>
       <c r="S183" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>79</v>
@@ -24402,13 +24413,13 @@
         <v>79</v>
       </c>
       <c r="W183" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>79</v>
@@ -24426,7 +24437,7 @@
         <v>79</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>77</v>
@@ -24444,7 +24455,7 @@
         <v>79</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>79</v>
@@ -24453,15 +24464,15 @@
         <v>79</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24472,10 +24483,10 @@
         <v>77</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>79</v>
@@ -24487,13 +24498,17 @@
         <v>88</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O184" t="s" s="2">
         <v>79</v>
       </c>
@@ -24505,7 +24520,7 @@
         <v>79</v>
       </c>
       <c r="S184" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>79</v>
@@ -24541,13 +24556,13 @@
         <v>79</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>79</v>
@@ -24556,10 +24571,10 @@
         <v>98</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>632</v>
+        <v>473</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>79</v>
@@ -24568,7 +24583,7 @@
         <v>79</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>79</v>
@@ -24576,18 +24591,18 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>87</v>
@@ -24602,10 +24617,10 @@
         <v>88</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -24620,7 +24635,7 @@
         <v>79</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>79</v>
@@ -24656,13 +24671,13 @@
         <v>79</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>79</v>
@@ -24674,7 +24689,7 @@
         <v>517</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>79</v>
@@ -24683,19 +24698,19 @@
         <v>79</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24705,7 +24720,7 @@
         <v>86</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H186" t="s" s="2">
         <v>79</v>
@@ -24717,14 +24732,12 @@
         <v>88</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
         <v>79</v>
@@ -24737,7 +24750,7 @@
         <v>79</v>
       </c>
       <c r="S186" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="T186" t="s" s="2">
         <v>79</v>
@@ -24773,7 +24786,7 @@
         <v>79</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>77</v>
@@ -24788,10 +24801,10 @@
         <v>98</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>79</v>
@@ -24800,19 +24813,19 @@
         <v>79</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24822,7 +24835,7 @@
         <v>86</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>79</v>
@@ -24834,12 +24847,14 @@
         <v>88</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M187" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
         <v>79</v>
@@ -24852,7 +24867,7 @@
         <v>79</v>
       </c>
       <c r="S187" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>79</v>
@@ -24864,13 +24879,13 @@
         <v>79</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>79</v>
@@ -24888,7 +24903,7 @@
         <v>79</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>77</v>
@@ -24903,10 +24918,10 @@
         <v>98</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>79</v>
@@ -24915,7 +24930,7 @@
         <v>79</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>79</v>
@@ -24923,11 +24938,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24949,10 +24964,10 @@
         <v>88</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -24967,7 +24982,7 @@
         <v>79</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>79</v>
@@ -24979,13 +24994,13 @@
         <v>79</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>79</v>
@@ -25003,7 +25018,7 @@
         <v>79</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>77</v>
@@ -25021,7 +25036,7 @@
         <v>517</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AL188" t="s" s="2">
         <v>79</v>
@@ -25030,19 +25045,19 @@
         <v>79</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AO188" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -25052,7 +25067,7 @@
         <v>86</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>79</v>
@@ -25064,14 +25079,12 @@
         <v>88</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
         <v>79</v>
@@ -25084,7 +25097,7 @@
         <v>79</v>
       </c>
       <c r="S189" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="T189" t="s" s="2">
         <v>79</v>
@@ -25120,7 +25133,7 @@
         <v>79</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>77</v>
@@ -25135,10 +25148,10 @@
         <v>98</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AL189" t="s" s="2">
         <v>79</v>
@@ -25147,15 +25160,15 @@
         <v>79</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25169,7 +25182,7 @@
         <v>86</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>79</v>
@@ -25178,18 +25191,18 @@
         <v>87</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M190" s="2"/>
-      <c r="N190" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
         <v>79</v>
       </c>
@@ -25201,7 +25214,7 @@
         <v>79</v>
       </c>
       <c r="S190" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="T190" t="s" s="2">
         <v>79</v>
@@ -25237,7 +25250,7 @@
         <v>79</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>77</v>
@@ -25252,10 +25265,10 @@
         <v>98</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="AL190" t="s" s="2">
         <v>79</v>
@@ -25264,15 +25277,15 @@
         <v>79</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25286,26 +25299,26 @@
         <v>86</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>79</v>
@@ -25318,7 +25331,7 @@
         <v>79</v>
       </c>
       <c r="S191" t="s" s="2">
-        <v>79</v>
+        <v>683</v>
       </c>
       <c r="T191" t="s" s="2">
         <v>79</v>
@@ -25330,13 +25343,13 @@
         <v>79</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>711</v>
+        <v>79</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>712</v>
+        <v>79</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>79</v>
@@ -25354,7 +25367,7 @@
         <v>79</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>77</v>
@@ -25369,19 +25382,19 @@
         <v>98</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>714</v>
+        <v>79</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>79</v>
@@ -25389,7 +25402,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25412,19 +25425,17 @@
         <v>79</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>717</v>
+        <v>382</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>720</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>79</v>
@@ -25449,13 +25460,13 @@
         <v>79</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>79</v>
+        <v>715</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>79</v>
+        <v>716</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>79</v>
@@ -25473,7 +25484,7 @@
         <v>79</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>77</v>
@@ -25491,16 +25502,16 @@
         <v>79</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>365</v>
+        <v>718</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>79</v>
@@ -25508,7 +25519,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25519,7 +25530,7 @@
         <v>77</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>79</v>
@@ -25531,19 +25542,19 @@
         <v>79</v>
       </c>
       <c r="J193" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>79</v>
@@ -25592,13 +25603,13 @@
         <v>79</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>79</v>
@@ -25610,7 +25621,7 @@
         <v>79</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="AL193" t="s" s="2">
         <v>365</v>
@@ -25619,7 +25630,7 @@
         <v>79</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>79</v>
@@ -25627,7 +25638,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25650,19 +25661,19 @@
         <v>79</v>
       </c>
       <c r="J194" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>79</v>
@@ -25711,7 +25722,7 @@
         <v>79</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>77</v>
@@ -25723,13 +25734,13 @@
         <v>79</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>738</v>
+        <v>98</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>365</v>
@@ -25738,7 +25749,7 @@
         <v>79</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>79</v>
+        <v>735</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>79</v>
@@ -25746,7 +25757,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25757,7 +25768,7 @@
         <v>77</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>79</v>
@@ -25769,16 +25780,20 @@
         <v>79</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>88</v>
+        <v>737</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>362</v>
+        <v>738</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>741</v>
+      </c>
       <c r="O195" t="s" s="2">
         <v>79</v>
       </c>
@@ -25826,28 +25841,28 @@
         <v>79</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>364</v>
+        <v>736</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>79</v>
+        <v>742</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK195" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AL195" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL195" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>79</v>
@@ -25861,18 +25876,18 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>79</v>
@@ -25884,17 +25899,15 @@
         <v>79</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
         <v>79</v>
@@ -25943,19 +25956,19 @@
         <v>79</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>79</v>
@@ -25978,11 +25991,11 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
-        <v>743</v>
+        <v>344</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25995,26 +26008,24 @@
         <v>79</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J197" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>744</v>
+        <v>367</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>745</v>
+        <v>368</v>
       </c>
       <c r="M197" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N197" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
         <v>79</v>
       </c>
@@ -26062,7 +26073,7 @@
         <v>79</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>746</v>
+        <v>370</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>77</v>
@@ -26080,7 +26091,7 @@
         <v>79</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>79</v>
@@ -26097,11 +26108,11 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
-        <v>79</v>
+        <v>747</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -26114,13 +26125,13 @@
         <v>79</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I198" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="K198" t="s" s="2">
         <v>748</v>
@@ -26128,9 +26139,11 @@
       <c r="L198" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="M198" s="2"/>
+      <c r="M198" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N198" t="s" s="2">
-        <v>750</v>
+        <v>348</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>79</v>
@@ -26155,13 +26168,13 @@
         <v>79</v>
       </c>
       <c r="W198" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>751</v>
+        <v>79</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>752</v>
+        <v>79</v>
       </c>
       <c r="Z198" t="s" s="2">
         <v>79</v>
@@ -26179,7 +26192,7 @@
         <v>79</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>77</v>
@@ -26191,22 +26204,22 @@
         <v>79</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>753</v>
+        <v>129</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>754</v>
+        <v>79</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>79</v>
@@ -26214,7 +26227,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26225,7 +26238,7 @@
         <v>77</v>
       </c>
       <c r="F199" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>79</v>
@@ -26237,17 +26250,17 @@
         <v>79</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>79</v>
@@ -26272,13 +26285,13 @@
         <v>79</v>
       </c>
       <c r="W199" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>79</v>
+        <v>755</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>79</v>
+        <v>756</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>79</v>
@@ -26296,13 +26309,13 @@
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>79</v>
@@ -26314,7 +26327,7 @@
         <v>79</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>452</v>
+        <v>757</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>365</v>
@@ -26323,7 +26336,7 @@
         <v>79</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>79</v>
@@ -26331,7 +26344,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26342,7 +26355,7 @@
         <v>77</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>79</v>
@@ -26354,19 +26367,17 @@
         <v>79</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="M200" s="2"/>
+      <c r="N200" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>79</v>
@@ -26415,13 +26426,13 @@
         <v>79</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>79</v>
@@ -26433,7 +26444,7 @@
         <v>79</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>365</v>
@@ -26442,7 +26453,7 @@
         <v>79</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>79</v>
@@ -26450,7 +26461,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26461,7 +26472,7 @@
         <v>77</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>79</v>
@@ -26473,17 +26484,19 @@
         <v>79</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>589</v>
+        <v>512</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="L201" t="s" s="2">
+      <c r="M201" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>768</v>
+        <v>516</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>79</v>
@@ -26532,13 +26545,13 @@
         <v>79</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>79</v>
@@ -26550,7 +26563,7 @@
         <v>79</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>596</v>
+        <v>518</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>365</v>
@@ -26559,7 +26572,7 @@
         <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>79</v>
@@ -26567,7 +26580,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26590,10 +26603,10 @@
         <v>79</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>106</v>
+        <v>593</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>563</v>
+        <v>770</v>
       </c>
       <c r="L202" t="s" s="2">
         <v>771</v>
@@ -26625,13 +26638,13 @@
         <v>79</v>
       </c>
       <c r="W202" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>773</v>
+        <v>79</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>774</v>
+        <v>79</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>79</v>
@@ -26649,7 +26662,7 @@
         <v>79</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -26667,7 +26680,7 @@
         <v>79</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>365</v>
@@ -26676,7 +26689,7 @@
         <v>79</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>79</v>
@@ -26684,7 +26697,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26707,17 +26720,17 @@
         <v>79</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>417</v>
+        <v>106</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>777</v>
+        <v>567</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>79</v>
@@ -26742,13 +26755,13 @@
         <v>79</v>
       </c>
       <c r="W203" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>79</v>
+        <v>777</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>79</v>
+        <v>778</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>79</v>
@@ -26766,7 +26779,7 @@
         <v>79</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>77</v>
@@ -26775,7 +26788,7 @@
         <v>86</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>780</v>
+        <v>79</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>98</v>
@@ -26784,7 +26797,7 @@
         <v>79</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>781</v>
+        <v>151</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>365</v>
@@ -26793,7 +26806,7 @@
         <v>79</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>79</v>
@@ -26801,7 +26814,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26824,16 +26837,18 @@
         <v>79</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
+      <c r="N204" t="s" s="2">
+        <v>783</v>
+      </c>
       <c r="O204" t="s" s="2">
         <v>79</v>
       </c>
@@ -26881,7 +26896,7 @@
         <v>79</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>77</v>
@@ -26890,7 +26905,7 @@
         <v>86</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>79</v>
+        <v>784</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>98</v>
@@ -26899,7 +26914,7 @@
         <v>79</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>365</v>
@@ -26908,13 +26923,13 @@
         <v>79</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>79</v>
+        <v>786</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
         <v>787</v>
       </c>
@@ -26927,10 +26942,10 @@
         <v>77</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>79</v>
@@ -26939,7 +26954,7 @@
         <v>79</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>733</v>
+        <v>410</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>788</v>
@@ -26947,12 +26962,8 @@
       <c r="L205" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M205" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>791</v>
-      </c>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
         <v>79</v>
       </c>
@@ -27006,7 +27017,7 @@
         <v>77</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>79</v>
@@ -27015,13 +27026,13 @@
         <v>98</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>787</v>
+        <v>79</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>793</v>
+        <v>365</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>79</v>
@@ -27033,9 +27044,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27046,10 +27057,10 @@
         <v>77</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>79</v>
@@ -27058,16 +27069,20 @@
         <v>79</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>88</v>
+        <v>737</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>362</v>
+        <v>792</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="O206" t="s" s="2">
         <v>79</v>
       </c>
@@ -27115,28 +27130,28 @@
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>364</v>
+        <v>791</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>79</v>
+        <v>791</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>365</v>
+        <v>796</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>79</v>
+        <v>797</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>79</v>
@@ -27150,18 +27165,18 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>79</v>
@@ -27173,17 +27188,15 @@
         <v>79</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
         <v>79</v>
@@ -27232,19 +27245,19 @@
         <v>79</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>79</v>
@@ -27267,11 +27280,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>743</v>
+        <v>344</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -27284,26 +27297,24 @@
         <v>79</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J208" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>744</v>
+        <v>367</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>745</v>
+        <v>368</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N208" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
         <v>79</v>
       </c>
@@ -27351,7 +27362,7 @@
         <v>79</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>746</v>
+        <v>370</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>77</v>
@@ -27369,7 +27380,7 @@
         <v>79</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>79</v>
@@ -27384,44 +27395,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
-        <v>79</v>
+        <v>747</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H209" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H209" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I209" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>800</v>
+        <v>347</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>801</v>
+        <v>348</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>79</v>
@@ -27446,11 +27457,13 @@
         <v>79</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="X209" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y209" t="s" s="2">
-        <v>802</v>
+        <v>79</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>79</v>
@@ -27468,42 +27481,42 @@
         <v>79</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>797</v>
+        <v>750</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>797</v>
+        <v>79</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>803</v>
+        <v>129</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>804</v>
+        <v>79</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>805</v>
+        <v>79</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -27511,13 +27524,13 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F210" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G210" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H210" t="s" s="2">
         <v>79</v>
@@ -27526,19 +27539,19 @@
         <v>79</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>79</v>
@@ -27563,13 +27576,11 @@
         <v>79</v>
       </c>
       <c r="W210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="X210" s="2"/>
       <c r="Y210" t="s" s="2">
-        <v>79</v>
+        <v>806</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>79</v>
@@ -27587,10 +27598,10 @@
         <v>79</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>86</v>
@@ -27602,19 +27613,19 @@
         <v>98</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>79</v>
+        <v>801</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
@@ -27622,18 +27633,18 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
-        <v>815</v>
+        <v>79</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>79</v>
@@ -27645,18 +27656,20 @@
         <v>79</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>816</v>
+        <v>437</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="N211" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="O211" t="s" s="2">
         <v>79</v>
       </c>
@@ -27704,13 +27717,13 @@
         <v>79</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>79</v>
@@ -27722,16 +27735,16 @@
         <v>79</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>365</v>
+        <v>816</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -27739,18 +27752,18 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
-        <v>79</v>
+        <v>819</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>79</v>
@@ -27759,23 +27772,21 @@
         <v>79</v>
       </c>
       <c r="I212" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>417</v>
+        <v>820</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L212" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>826</v>
-      </c>
+      <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
         <v>79</v>
       </c>
@@ -27823,13 +27834,13 @@
         <v>79</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>79</v>
@@ -27841,16 +27852,16 @@
         <v>79</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>827</v>
+        <v>365</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>79</v>
+        <v>825</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>79</v>
@@ -27858,7 +27869,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27869,31 +27880,31 @@
         <v>77</v>
       </c>
       <c r="F213" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>733</v>
+        <v>417</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>79</v>
@@ -27942,13 +27953,13 @@
         <v>79</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>79</v>
@@ -27960,10 +27971,10 @@
         <v>79</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>833</v>
+        <v>785</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>365</v>
+        <v>831</v>
       </c>
       <c r="AM213" t="s" s="2">
         <v>79</v>
@@ -27977,7 +27988,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27988,28 +27999,32 @@
         <v>77</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I214" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>88</v>
+        <v>737</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>362</v>
+        <v>833</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>836</v>
+      </c>
       <c r="O214" t="s" s="2">
         <v>79</v>
       </c>
@@ -28057,28 +28072,28 @@
         <v>79</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>364</v>
+        <v>832</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK214" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AL214" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL214" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>79</v>
@@ -28092,18 +28107,18 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>79</v>
@@ -28115,17 +28130,15 @@
         <v>79</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M215" s="2"/>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
         <v>79</v>
@@ -28174,19 +28187,19 @@
         <v>79</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>79</v>
@@ -28209,11 +28222,11 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
-        <v>743</v>
+        <v>344</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -28226,26 +28239,24 @@
         <v>79</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>744</v>
+        <v>367</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>745</v>
+        <v>368</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N216" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
         <v>79</v>
       </c>
@@ -28293,7 +28304,7 @@
         <v>79</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>746</v>
+        <v>370</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>77</v>
@@ -28311,7 +28322,7 @@
         <v>79</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>79</v>
@@ -28328,41 +28339,43 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>79</v>
+        <v>747</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F217" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>838</v>
+        <v>131</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>839</v>
+        <v>748</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>840</v>
+        <v>749</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="N217" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O217" t="s" s="2">
         <v>79</v>
       </c>
@@ -28410,34 +28423,34 @@
         <v>79</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>837</v>
+        <v>750</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>842</v>
+        <v>79</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -28445,7 +28458,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -28468,15 +28481,17 @@
         <v>87</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>106</v>
+        <v>842</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
         <v>79</v>
@@ -28501,13 +28516,13 @@
         <v>79</v>
       </c>
       <c r="W218" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>845</v>
+        <v>79</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>846</v>
+        <v>79</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>79</v>
@@ -28525,7 +28540,7 @@
         <v>79</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>86</v>
@@ -28543,7 +28558,7 @@
         <v>79</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>847</v>
+        <v>357</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>365</v>
@@ -28552,14 +28567,129 @@
         <v>79</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>79</v>
+        <v>846</v>
       </c>
       <c r="AO218" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" hidden="true">
+      <c r="A219" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P219" s="2"/>
+      <c r="Q219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="AL219" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO219" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO218">
+  <autoFilter ref="A1:AO219">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -28569,7 +28699,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI217">
+  <conditionalFormatting sqref="A2:AI218">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sara-alert-patient.xlsx
+++ b/StructureDefinition-sara-alert-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
